--- a/PaperRelative/Resource/ExperimentDataBase/DataHXX_Flowers.xlsx
+++ b/PaperRelative/Resource/ExperimentDataBase/DataHXX_Flowers.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonFile\TestAI\PaperRelative\Resource\ExperimentDataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA357D-0918-4723-90B3-F1B9CE6DAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14630" windowHeight="7010"/>
+    <workbookView xWindow="9990" yWindow="3795" windowWidth="38370" windowHeight="18915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -114,18 +131,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="177" formatCode="0.000000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.000000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="178" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.000000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -146,338 +159,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -485,251 +181,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,92 +191,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="005B9BD5"/>
-      <color rgb="00000000"/>
+      <color rgb="FF5B9BD5"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1080,30 +490,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V18" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="13.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="11.9166666666667" customWidth="1"/>
-    <col min="14" max="14" width="11.4166666666667" customWidth="1"/>
-    <col min="21" max="21" width="11.3333333333333" customWidth="1"/>
-    <col min="23" max="23" width="13.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="21" max="21" width="11.375" customWidth="1"/>
+    <col min="22" max="22" width="15.25" customWidth="1"/>
+    <col min="23" max="23" width="13.625" customWidth="1"/>
+    <col min="24" max="27" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.25" customWidth="1"/>
     <col min="29" max="29" width="13.5" customWidth="1"/>
-    <col min="32" max="32" width="12.6666666666667"/>
+    <col min="30" max="30" width="18.75" customWidth="1"/>
+    <col min="31" max="31" width="15.5" customWidth="1"/>
+    <col min="32" max="32" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,429 +616,429 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>0.083412</v>
+        <v>8.3412E-2</v>
       </c>
       <c r="B2" s="4">
-        <v>0.345655</v>
+        <v>0.34565499999999999</v>
       </c>
       <c r="C2" s="4">
-        <v>0.243265</v>
+        <v>0.24326500000000001</v>
       </c>
       <c r="D2" s="4">
-        <v>0.565888</v>
+        <v>0.56588799999999995</v>
       </c>
       <c r="E2" s="4">
-        <v>0.813008</v>
+        <v>0.81300799999999995</v>
       </c>
       <c r="F2" s="4">
-        <v>0.836228</v>
+        <v>0.83622799999999997</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G37" si="0">(F2-C2)/(F2+C2)</f>
-        <v>0.54929767955883</v>
+        <v>0.5492976795588298</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H37" si="1">(F2-B2)/(F2+B2)</f>
-        <v>0.415077465366707</v>
+        <v>0.4150774653667072</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I37" si="2">(1.5*(F2-C2))/(F2+C2+0.5)</f>
-        <v>0.563120254410751</v>
+        <v>0.56312025441075064</v>
       </c>
       <c r="J2" s="6">
         <f t="shared" ref="J2:J37" si="3">(2.5*(F2-C2))/(F2+2.4*C2+1)</f>
-        <v>0.612548883004747</v>
+        <v>0.61254888300474697</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K37" si="4">((F2/C2)-1)/SQRT((F2/C2)+1)</f>
-        <v>1.15711857480088</v>
+        <v>1.1571185748008845</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" ref="L2:L37" si="5">3*(D2-C2)-0.2*(D2-B2)*(D2/C2)</f>
-        <v>0.865406901544406</v>
+        <v>0.86540690154440625</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" ref="M2:M37" si="6">E2/(1-C2)</f>
-        <v>1.07436288793303</v>
+        <v>1.074362887933028</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" ref="N2:N37" si="7">F2/(1-E2)</f>
-        <v>4.47199880208779</v>
+        <v>4.4719988020877883</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" ref="O2:O37" si="8">F2/(1-B2)</f>
-        <v>1.27796193139705</v>
+        <v>1.2779619313970458</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P37" si="9">F2-C2</f>
-        <v>0.592963</v>
+        <v>0.59296299999999991</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" ref="Q2:Q37" si="10">(F2-D2)/(D2-C2)</f>
-        <v>0.837943977955695</v>
+        <v>0.83794397795569464</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R37" si="11">(F2-C2)/(F2+C2+0.16)</f>
-        <v>0.478391568165371</v>
+        <v>0.47839156816537076</v>
       </c>
       <c r="S2" s="1">
         <f t="shared" ref="S2:S37" si="12">(F2-C2)/SQRT(F2+C2)</f>
-        <v>0.570712887504954</v>
+        <v>0.57071288750495408</v>
       </c>
       <c r="T2" s="1">
         <f t="shared" ref="T2:T37" si="13">F2/C2</f>
-        <v>3.43751875526689</v>
+        <v>3.4375187552668898</v>
       </c>
       <c r="U2" s="1">
         <f t="shared" ref="U2:U37" si="14">0.5*(120*(F2-B2)-200*(C2-B2))</f>
-        <v>39.67338</v>
+        <v>39.673379999999995</v>
       </c>
       <c r="V2" s="1">
         <f t="shared" ref="V2:V37" si="15">(F2-D2)/(F2+C2)</f>
-        <v>0.2504323789038</v>
+        <v>0.25043237890380021</v>
       </c>
       <c r="W2" s="1">
         <f t="shared" ref="W2:W37" si="16">(E2-F2)/(F2+C2)</f>
-        <v>-0.0215100977959098</v>
+        <v>-2.1510097795909764E-2</v>
       </c>
       <c r="X2" s="1">
-        <f t="shared" ref="X2:X37" si="17">(2*B2-C2-A2)/(2*B2+C2+A2)</f>
-        <v>0.358190232291768</v>
+        <f>(2*B2-C2-A2)/(2*B2+C2+A2)</f>
+        <v>0.35819023229176794</v>
       </c>
       <c r="Y2" s="1">
-        <f t="shared" ref="Y2:Y37" si="18">(F2-A2)/(F2+A2)</f>
-        <v>0.818598582053847</v>
+        <f>(F2-A2)/(F2+A2)</f>
+        <v>0.81859858205384706</v>
       </c>
       <c r="Z2" s="1">
-        <f t="shared" ref="Z2:Z37" si="19">1.5*(2-F2^2)/(F2^2+C2+0.5)</f>
+        <f>1.5*(2-F2^2)/(F2^2+C2+0.5)</f>
         <v>1.35253166671553</v>
       </c>
       <c r="AA2" s="1">
-        <f t="shared" ref="AA2:AA37" si="20">F2*C2/B2^2</f>
-        <v>1.70262359352087</v>
+        <f>F2*C2/B2^2</f>
+        <v>1.7026235935208658</v>
       </c>
       <c r="AB2" s="1">
-        <f t="shared" ref="AB2:AB37" si="21">(0.5*(1.2*(F2-B2)-2.5*(C2-B2))/SQRT((2*F2+1)^2-(F2-SQRT(5))-0.5))</f>
-        <v>0.148927530033333</v>
+        <f t="shared" ref="AB2:AB37" si="17">(0.5*(1.2*(F2-B2)-2.5*(C2-B2))/SQRT((2*F2+1)^2-(F2-SQRT(5))-0.5))</f>
+        <v>0.14892753003333348</v>
       </c>
       <c r="AC2" s="1">
-        <f t="shared" ref="AC2:AC37" si="22">0.5*(2*F2+1)-SQRT((2*F2+1)^2-8*(F2-C2))</f>
-        <v>-0.212422080533366</v>
+        <f t="shared" ref="AC2:AC37" si="18">0.5*(2*F2+1)-SQRT((2*F2+1)^2-8*(F2-C2))</f>
+        <v>-0.21242208053336586</v>
       </c>
       <c r="AD2" s="1">
-        <f t="shared" ref="AD2:AD37" si="23">2.5*((F2-C2)/(F2+6*C2-7.5*A2+1))</f>
-        <v>0.555161394457702</v>
+        <f t="shared" ref="AD2:AD37" si="19">2.5*((F2-C2)/(F2+6*C2-7.5*A2+1))</f>
+        <v>0.55516139445770174</v>
       </c>
       <c r="AE2" s="1">
-        <f t="shared" ref="AE2:AE37" si="24">((F2-(2*C2-A2))/((F2+(2*C2-A2))))</f>
-        <v>0.349466573499249</v>
+        <f t="shared" ref="AE2:AE37" si="20">((F2-(2*C2-A2))/((F2+(2*C2-A2))))</f>
+        <v>0.34946657349924876</v>
       </c>
       <c r="AF2" s="8">
-        <v>40.9333333333333</v>
+        <v>40.933333333333302</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>0.082306</v>
+        <v>8.2306000000000004E-2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.334855</v>
+        <v>0.33485500000000001</v>
       </c>
       <c r="C3" s="4">
         <v>0.233126</v>
       </c>
       <c r="D3" s="4">
-        <v>0.564455</v>
+        <v>0.56445500000000004</v>
       </c>
       <c r="E3" s="4">
         <v>0.826484</v>
       </c>
       <c r="F3" s="4">
-        <v>0.853446</v>
+        <v>0.85344600000000004</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>0.570896360296418</v>
+        <v>0.57089636029641844</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="1"/>
-        <v>0.436413837908072</v>
+        <v>0.43641383790807209</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="2"/>
-        <v>0.58647196597444</v>
+        <v>0.5864719659744404</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="3"/>
-        <v>0.642699197380267</v>
+        <v>0.64269919738026726</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="4"/>
-        <v>1.23251204695101</v>
+        <v>1.2325120469510111</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" si="5"/>
-        <v>0.882803461484348</v>
+        <v>0.88280346148434763</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="6"/>
-        <v>1.07773115270566</v>
+        <v>1.0777311527056594</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="7"/>
-        <v>4.91854353489015</v>
+        <v>4.9185435348901541</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="8"/>
-        <v>1.28309767043276</v>
+        <v>1.2830976704327628</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="9"/>
-        <v>0.62032</v>
+        <v>0.62031999999999998</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="10"/>
-        <v>0.872217644697566</v>
+        <v>0.87221764469756635</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="11"/>
-        <v>0.497620674938953</v>
+        <v>0.49762067493895257</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" si="12"/>
-        <v>0.595095311877916</v>
+        <v>0.59509531187791609</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="13"/>
-        <v>3.66087866647221</v>
+        <v>3.6608786664722084</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" si="14"/>
-        <v>41.28836</v>
+        <v>41.288360000000004</v>
       </c>
       <c r="V3" s="1">
         <f t="shared" si="15"/>
-        <v>0.265965808064261</v>
+        <v>0.26596580806426079</v>
       </c>
       <c r="W3" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0248138181363039</v>
+        <v>-2.4813818136303935E-2</v>
       </c>
       <c r="X3" s="1">
+        <f t="shared" ref="X2:X37" si="21">(2*B3-C3-A3)/(2*B3+C3+A3)</f>
+        <v>0.35962125257069544</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y2:Y37" si="22">(F3-A3)/(F3+A3)</f>
+        <v>0.82408586890543656</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z2:Z37" si="23">1.5*(2-F3^2)/(F3^2+C3+0.5)</f>
+        <v>1.3051317210931483</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA2:AA37" si="24">F3*C3/B3^2</f>
+        <v>1.774406758794518</v>
+      </c>
+      <c r="AB3" s="1">
         <f t="shared" si="17"/>
-        <v>0.359621252570695</v>
-      </c>
-      <c r="Y3" s="1">
+        <v>0.15297434588902131</v>
+      </c>
+      <c r="AC3" s="1">
         <f t="shared" si="18"/>
-        <v>0.824085868905437</v>
-      </c>
-      <c r="Z3" s="1">
+        <v>-0.1843135064456598</v>
+      </c>
+      <c r="AD3" s="1">
         <f t="shared" si="19"/>
-        <v>1.30513172109315</v>
-      </c>
-      <c r="AA3" s="1">
+        <v>0.58855967212505034</v>
+      </c>
+      <c r="AE3" s="1">
         <f t="shared" si="20"/>
-        <v>1.77440675879452</v>
-      </c>
-      <c r="AB3" s="1">
-        <f t="shared" si="21"/>
-        <v>0.152974345889021</v>
-      </c>
-      <c r="AC3" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.18431350644566</v>
-      </c>
-      <c r="AD3" s="1">
-        <f t="shared" si="23"/>
-        <v>0.58855967212505</v>
-      </c>
-      <c r="AE3" s="1">
-        <f t="shared" si="24"/>
-        <v>0.379427053027658</v>
+        <v>0.37942705302765817</v>
       </c>
       <c r="AF3" s="8">
         <v>46.1</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>0.099105</v>
+        <v>9.9104999999999999E-2</v>
       </c>
       <c r="B4" s="4">
-        <v>0.341901</v>
+        <v>0.34190100000000001</v>
       </c>
       <c r="C4" s="4">
-        <v>0.236444</v>
+        <v>0.23644399999999999</v>
       </c>
       <c r="D4" s="4">
-        <v>0.585408</v>
+        <v>0.58540800000000004</v>
       </c>
       <c r="E4" s="4">
         <v>0.831515</v>
       </c>
       <c r="F4" s="4">
-        <v>0.857189</v>
+        <v>0.85718899999999998</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0.567599002590448</v>
+        <v>0.56759900259044849</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>0.429732547181613</v>
+        <v>0.42973254718161269</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="2"/>
-        <v>0.584273480782589</v>
+        <v>0.58427348078258923</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="3"/>
-        <v>0.640034460990856</v>
+        <v>0.64003446099085626</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="4"/>
-        <v>1.22071218010394</v>
+        <v>1.2207121801039447</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="5"/>
-        <v>0.926312965762718</v>
+        <v>0.92631296576271771</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="6"/>
-        <v>1.08900329510868</v>
+        <v>1.0890032951086757</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="7"/>
-        <v>5.08762797875182</v>
+        <v>5.0876279787518177</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="8"/>
-        <v>1.30252287269848</v>
+        <v>1.3025228726984845</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="9"/>
-        <v>0.620745</v>
+        <v>0.62074499999999999</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="10"/>
-        <v>0.778822457330842</v>
+        <v>0.77882245733084188</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="11"/>
-        <v>0.495156876055432</v>
+        <v>0.49515687605543246</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="12"/>
-        <v>0.593577495246415</v>
+        <v>0.59357749524641501</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="13"/>
-        <v>3.62533623183502</v>
+        <v>3.6253362318350222</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="14"/>
-        <v>41.46298</v>
+        <v>41.462980000000002</v>
       </c>
       <c r="V4" s="1">
         <f t="shared" si="15"/>
-        <v>0.248512069405367</v>
+        <v>0.24851206940536719</v>
       </c>
       <c r="W4" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0234758826772784</v>
+        <v>-2.3475882677278369E-2</v>
       </c>
       <c r="X4" s="1">
+        <f t="shared" si="21"/>
+        <v>0.34164188782862831</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="22"/>
+        <v>0.79273110570598582</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="23"/>
+        <v>1.2899800308166947</v>
+      </c>
+      <c r="AA4" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7338205457653795</v>
+      </c>
+      <c r="AB4" s="1">
         <f t="shared" si="17"/>
-        <v>0.341641887828628</v>
-      </c>
-      <c r="Y4" s="1">
+        <v>0.15356488663006762</v>
+      </c>
+      <c r="AC4" s="1">
         <f t="shared" si="18"/>
-        <v>0.792731105705986</v>
-      </c>
-      <c r="Z4" s="1">
+        <v>-0.1926135444823609</v>
+      </c>
+      <c r="AD4" s="1">
         <f t="shared" si="19"/>
-        <v>1.28998003081669</v>
-      </c>
-      <c r="AA4" s="1">
+        <v>0.61276302626723778</v>
+      </c>
+      <c r="AE4" s="1">
         <f t="shared" si="20"/>
-        <v>1.73382054576538</v>
-      </c>
-      <c r="AB4" s="1">
-        <f t="shared" si="21"/>
-        <v>0.153564886630068</v>
-      </c>
-      <c r="AC4" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.192613544482361</v>
-      </c>
-      <c r="AD4" s="1">
-        <f t="shared" si="23"/>
-        <v>0.612763026267238</v>
-      </c>
-      <c r="AE4" s="1">
-        <f t="shared" si="24"/>
-        <v>0.392702677233926</v>
+        <v>0.39270267723392571</v>
       </c>
       <c r="AF4" s="8">
-        <v>43.5666666666667</v>
+        <v>43.566666666666698</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>0.057625</v>
+        <v>5.7625000000000003E-2</v>
       </c>
       <c r="B5" s="4">
-        <v>0.291467</v>
+        <v>0.29146699999999998</v>
       </c>
       <c r="C5" s="4">
-        <v>0.209741</v>
+        <v>0.20974100000000001</v>
       </c>
       <c r="D5" s="4">
-        <v>0.477119</v>
+        <v>0.47711900000000002</v>
       </c>
       <c r="E5" s="4">
-        <v>0.725294</v>
+        <v>0.72529399999999999</v>
       </c>
       <c r="F5" s="4">
-        <v>0.75379</v>
+        <v>0.75378999999999996</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>0.56464088856508</v>
+        <v>0.56464088856507999</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>0.442305576523286</v>
+        <v>0.44230557652328567</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="2"/>
-        <v>0.557605886038628</v>
+        <v>0.55760588603862848</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="3"/>
-        <v>0.602579098661846</v>
+        <v>0.60257909866184567</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>1.2102177079829</v>
+        <v>1.2102177079828955</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="5"/>
-        <v>0.717669735418445</v>
+        <v>0.7176697354184447</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="6"/>
-        <v>0.917792774267677</v>
+        <v>0.91779277426767669</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="7"/>
-        <v>2.74398811820637</v>
+        <v>2.743988118206373</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="8"/>
-        <v>1.0638742302758</v>
+        <v>1.0638742302757951</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="9"/>
@@ -1631,19 +1046,19 @@
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="10"/>
-        <v>1.03475603826792</v>
+        <v>1.0347560382679202</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="11"/>
-        <v>0.484231409725232</v>
+        <v>0.48423140972523238</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="12"/>
-        <v>0.554249321860607</v>
+        <v>0.55424932186060738</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="13"/>
-        <v>3.59390867784553</v>
+        <v>3.5939086778455329</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="14"/>
@@ -1651,245 +1066,245 @@
       </c>
       <c r="V5" s="1">
         <f t="shared" si="15"/>
-        <v>0.287142811180958</v>
+        <v>0.28714281118095836</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0295745544253376</v>
+        <v>-2.9574554425337605E-2</v>
       </c>
       <c r="X5" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37112548512289772</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="22"/>
+        <v>0.85796417369656697</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="23"/>
+        <v>1.680595600689502</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" si="24"/>
+        <v>1.8610366425191349</v>
+      </c>
+      <c r="AB5" s="1">
         <f t="shared" si="17"/>
-        <v>0.371125485122898</v>
-      </c>
-      <c r="Y5" s="1">
+        <v>0.14076550599828627</v>
+      </c>
+      <c r="AC5" s="1">
         <f t="shared" si="18"/>
-        <v>0.857964173696567</v>
-      </c>
-      <c r="Z5" s="1">
+        <v>-0.13745600858367246</v>
+      </c>
+      <c r="AD5" s="1">
         <f t="shared" si="19"/>
-        <v>1.6805956006895</v>
-      </c>
-      <c r="AA5" s="1">
+        <v>0.52716935359936057</v>
+      </c>
+      <c r="AE5" s="1">
         <f t="shared" si="20"/>
-        <v>1.86103664251913</v>
-      </c>
-      <c r="AB5" s="1">
-        <f t="shared" si="21"/>
-        <v>0.140765505998286</v>
-      </c>
-      <c r="AC5" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.137456008583672</v>
-      </c>
-      <c r="AD5" s="1">
-        <f t="shared" si="23"/>
-        <v>0.527169353599361</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="24"/>
-        <v>0.351305565290813</v>
+        <v>0.35130556529081325</v>
       </c>
       <c r="AF5" s="8">
-        <v>46.3666666666667</v>
+        <v>46.366666666666703</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>0.066446</v>
+        <v>6.6446000000000005E-2</v>
       </c>
       <c r="B6" s="4">
-        <v>0.407935</v>
+        <v>0.40793499999999999</v>
       </c>
       <c r="C6" s="4">
         <v>0.304616</v>
       </c>
       <c r="D6" s="4">
-        <v>0.614765</v>
+        <v>0.61476500000000001</v>
       </c>
       <c r="E6" s="4">
-        <v>0.88684</v>
+        <v>0.88683999999999996</v>
       </c>
       <c r="F6" s="4">
-        <v>0.918534</v>
+        <v>0.91853399999999996</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>0.501915545926501</v>
+        <v>0.50191554592650123</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>0.384930970870786</v>
+        <v>0.38493097087078559</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>0.534414879726083</v>
+        <v>0.53441487972608304</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="3"/>
-        <v>0.579252648425105</v>
+        <v>0.57925264842510549</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>1.00575951917094</v>
+        <v>1.0057595191709361</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="5"/>
-        <v>0.846963634090133</v>
+        <v>0.8469636340901332</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="6"/>
-        <v>1.27532413745499</v>
+        <v>1.2753241374549888</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="7"/>
-        <v>8.11712619300106</v>
+        <v>8.1171261930010576</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="8"/>
-        <v>1.55140736236731</v>
+        <v>1.5514073623673075</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="9"/>
-        <v>0.613918</v>
+        <v>0.61391799999999996</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="10"/>
-        <v>0.979429242073971</v>
+        <v>0.97942924207397075</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="11"/>
-        <v>0.443854968730796</v>
+        <v>0.44385496873079566</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="12"/>
-        <v>0.555099079556169</v>
+        <v>0.55509907955616866</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="13"/>
-        <v>3.01538330225595</v>
+        <v>3.0153833022559549</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="14"/>
-        <v>40.96784</v>
+        <v>40.967840000000002</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" si="15"/>
-        <v>0.248349752687732</v>
+        <v>0.24834975268773246</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0259117851449127</v>
+        <v>-2.5911785144912727E-2</v>
       </c>
       <c r="X6" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37475440884566258</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86508152449795939</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0522484651388611</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="24"/>
+        <v>1.6813805162843081</v>
+      </c>
+      <c r="AB6" s="1">
         <f t="shared" si="17"/>
-        <v>0.374754408845663</v>
-      </c>
-      <c r="Y6" s="1">
+        <v>0.14625827651389131</v>
+      </c>
+      <c r="AC6" s="1">
         <f t="shared" si="18"/>
-        <v>0.865081524497959</v>
-      </c>
-      <c r="Z6" s="1">
+        <v>-0.35279624493570916</v>
+      </c>
+      <c r="AD6" s="1">
         <f t="shared" si="19"/>
-        <v>1.05224846513886</v>
-      </c>
-      <c r="AA6" s="1">
+        <v>0.47255213777581412</v>
+      </c>
+      <c r="AE6" s="1">
         <f t="shared" si="20"/>
-        <v>1.68138051628431</v>
-      </c>
-      <c r="AB6" s="1">
-        <f t="shared" si="21"/>
-        <v>0.146258276513891</v>
-      </c>
-      <c r="AC6" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.352796244935709</v>
-      </c>
-      <c r="AD6" s="1">
-        <f t="shared" si="23"/>
-        <v>0.472552137775814</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" si="24"/>
-        <v>0.257129170886596</v>
+        <v>0.25712917088659565</v>
       </c>
       <c r="AF6" s="8">
-        <v>44.0333333333333</v>
+        <v>44.033333333333303</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>0.070299</v>
+        <v>7.0299E-2</v>
       </c>
       <c r="B7" s="4">
-        <v>0.361235</v>
+        <v>0.36123499999999997</v>
       </c>
       <c r="C7" s="4">
         <v>0.268986</v>
       </c>
       <c r="D7" s="4">
-        <v>0.565824</v>
+        <v>0.56582399999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>0.806042</v>
+        <v>0.80604200000000004</v>
       </c>
       <c r="F7" s="4">
-        <v>0.828952</v>
+        <v>0.82895200000000002</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>0.51001604826502</v>
+        <v>0.51001604826502034</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>0.392977742153124</v>
+        <v>0.39297774215312392</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>0.525645550703469</v>
+        <v>0.52564555070346908</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="3"/>
-        <v>0.565732305728662</v>
+        <v>0.56573230572866218</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>1.03040489165738</v>
+        <v>1.0304048916573783</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="5"/>
-        <v>0.804441590033682</v>
+        <v>0.8044415900336821</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="6"/>
-        <v>1.10263551724044</v>
+        <v>1.1026355172404358</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="7"/>
-        <v>4.27387372523949</v>
+        <v>4.2738737252394854</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="8"/>
-        <v>1.2977417360062</v>
+        <v>1.2977417360061994</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="9"/>
-        <v>0.559966</v>
+        <v>0.55996599999999996</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="10"/>
-        <v>0.886436372701608</v>
+        <v>0.88643637270160835</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="11"/>
-        <v>0.445145945189667</v>
+        <v>0.44514594518966749</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="12"/>
-        <v>0.534407753015214</v>
+        <v>0.53440775301521437</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="13"/>
-        <v>3.08176633728149</v>
+        <v>3.0817663372814943</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="14"/>
@@ -1897,348 +1312,348 @@
       </c>
       <c r="V7" s="1">
         <f t="shared" si="15"/>
-        <v>0.239656519767054</v>
+        <v>0.23965651976705424</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0208663877195251</v>
+        <v>-2.0866387719525131E-2</v>
       </c>
       <c r="X7" s="1">
+        <f t="shared" si="21"/>
+        <v>0.36089775889918108</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84364988195731783</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="23"/>
+        <v>1.3523753486701426</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7087534940704061</v>
+      </c>
+      <c r="AB7" s="1">
         <f t="shared" si="17"/>
-        <v>0.360897758899181</v>
-      </c>
-      <c r="Y7" s="1">
+        <v>0.14023584854063109</v>
+      </c>
+      <c r="AC7" s="1">
         <f t="shared" si="18"/>
-        <v>0.843649881957318</v>
-      </c>
-      <c r="Z7" s="1">
+        <v>-0.27875620524621358</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" si="19"/>
-        <v>1.35237534867014</v>
-      </c>
-      <c r="AA7" s="1">
+        <v>0.48014225420925971</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="20"/>
-        <v>1.70875349407041</v>
-      </c>
-      <c r="AB7" s="1">
-        <f t="shared" si="21"/>
-        <v>0.140235848540631</v>
-      </c>
-      <c r="AC7" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.278756205246214</v>
-      </c>
-      <c r="AD7" s="1">
-        <f t="shared" si="23"/>
-        <v>0.48014225420926</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="24"/>
-        <v>0.27863029017642</v>
+        <v>0.27863029017641955</v>
       </c>
       <c r="AF7" s="8">
-        <v>40.9666666666667</v>
+        <v>40.966666666666697</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>0.059015</v>
+        <v>5.9014999999999998E-2</v>
       </c>
       <c r="B8" s="4">
-        <v>0.354301</v>
+        <v>0.35430099999999998</v>
       </c>
       <c r="C8" s="4">
-        <v>0.259823</v>
+        <v>0.25982300000000003</v>
       </c>
       <c r="D8" s="4">
-        <v>0.549524</v>
+        <v>0.54952400000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>0.822541</v>
+        <v>0.82254099999999997</v>
       </c>
       <c r="F8" s="4">
-        <v>0.854448</v>
+        <v>0.85444799999999999</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>0.53364486736171</v>
+        <v>0.53364486736171002</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.413772420907897</v>
+        <v>0.41377242090789734</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>0.552532691227186</v>
+        <v>0.55253269122718551</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="3"/>
-        <v>0.599898540094378</v>
+        <v>0.59989854009437837</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>1.10511876692144</v>
+        <v>1.1051187669214391</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="5"/>
-        <v>0.786523918200467</v>
+        <v>0.78652391820046719</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="6"/>
-        <v>1.11127608666576</v>
+        <v>1.1112760866657569</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="7"/>
-        <v>4.81490372424053</v>
+        <v>4.8149037242405281</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="8"/>
-        <v>1.32329150269708</v>
+        <v>1.3232915026970771</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="9"/>
-        <v>0.594625</v>
+        <v>0.59462499999999996</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="10"/>
-        <v>1.05254728150749</v>
+        <v>1.0525472815074852</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="11"/>
-        <v>0.466639356934278</v>
+        <v>0.46663935693427849</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="12"/>
-        <v>0.563310375596755</v>
+        <v>0.56331037559675456</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="13"/>
-        <v>3.28857722372538</v>
+        <v>3.2885772237253819</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="14"/>
-        <v>39.45662</v>
+        <v>39.456619999999994</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" si="15"/>
-        <v>0.273653357217409</v>
+        <v>0.27365335721740941</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0286348653065547</v>
+        <v>-2.8634865306554704E-2</v>
       </c>
       <c r="X8" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37935451218562638</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="22"/>
+        <v>0.87078841726484812</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="23"/>
+        <v>1.2785236035951684</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7685546086345483</v>
+      </c>
+      <c r="AB8" s="1">
         <f t="shared" si="17"/>
-        <v>0.379354512185626</v>
-      </c>
-      <c r="Y8" s="1">
+        <v>0.14586134141787724</v>
+      </c>
+      <c r="AC8" s="1">
         <f t="shared" si="18"/>
-        <v>0.870788417264848</v>
-      </c>
-      <c r="Z8" s="1">
+        <v>-0.25213767739663395</v>
+      </c>
+      <c r="AD8" s="1">
         <f t="shared" si="19"/>
-        <v>1.27852360359517</v>
-      </c>
-      <c r="AA8" s="1">
+        <v>0.50039577234683152</v>
+      </c>
+      <c r="AE8" s="1">
         <f t="shared" si="20"/>
-        <v>1.76855460863455</v>
-      </c>
-      <c r="AB8" s="1">
-        <f t="shared" si="21"/>
-        <v>0.145861341417877</v>
-      </c>
-      <c r="AC8" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.252137677396634</v>
-      </c>
-      <c r="AD8" s="1">
-        <f t="shared" si="23"/>
-        <v>0.500395772346832</v>
-      </c>
-      <c r="AE8" s="1">
-        <f t="shared" si="24"/>
-        <v>0.299462617835126</v>
+        <v>0.29946261783512618</v>
       </c>
       <c r="AF8" s="8">
-        <v>47.4333333333333</v>
+        <v>47.433333333333302</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>0.06481</v>
+        <v>6.4810000000000006E-2</v>
       </c>
       <c r="B9" s="4">
-        <v>0.374734</v>
+        <v>0.37473400000000001</v>
       </c>
       <c r="C9" s="4">
         <v>0.27531</v>
       </c>
       <c r="D9" s="4">
-        <v>0.569695</v>
+        <v>0.56969499999999995</v>
       </c>
       <c r="E9" s="4">
-        <v>0.868667</v>
+        <v>0.86866699999999997</v>
       </c>
       <c r="F9" s="4">
-        <v>0.910055</v>
+        <v>0.91005499999999995</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>0.535484850657814</v>
+        <v>0.53548485065781415</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>0.416660634547774</v>
+        <v>0.41666063454777397</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>0.564932522035286</v>
+        <v>0.56493252203528599</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="3"/>
-        <v>0.617264321325782</v>
+        <v>0.61726432132578224</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>1.11112327619964</v>
+        <v>1.1111232761996408</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="5"/>
-        <v>0.802469004652937</v>
+        <v>0.80246900465293658</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="6"/>
-        <v>1.19867391574328</v>
+        <v>1.1986739157432833</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="7"/>
-        <v>6.92937037911264</v>
+        <v>6.9293703791126351</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="8"/>
-        <v>1.45546855258402</v>
+        <v>1.4554685525840201</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="9"/>
-        <v>0.634745</v>
+        <v>0.63474499999999989</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="10"/>
-        <v>1.15617303870781</v>
+        <v>1.1561730387078148</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="11"/>
-        <v>0.471801332723833</v>
+        <v>0.47180133272383323</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="12"/>
-        <v>0.583006287728352</v>
+        <v>0.58300628772835217</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="13"/>
-        <v>3.30556463622825</v>
+        <v>3.3055646362282518</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="14"/>
-        <v>42.06166</v>
+        <v>42.061659999999996</v>
       </c>
       <c r="V9" s="1">
         <f t="shared" si="15"/>
-        <v>0.287135186208467</v>
+        <v>0.28713518620846745</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0349158276142791</v>
+        <v>-3.4915827614279131E-2</v>
       </c>
       <c r="X9" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37569062801719555</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86703800013335175</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0961576370155843</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7841995635206973</v>
+      </c>
+      <c r="AB9" s="1">
         <f t="shared" si="17"/>
-        <v>0.375690628017196</v>
-      </c>
-      <c r="Y9" s="1">
+        <v>0.15034799690237646</v>
+      </c>
+      <c r="AC9" s="1">
         <f t="shared" si="18"/>
-        <v>0.867038000133352</v>
-      </c>
-      <c r="Z9" s="1">
+        <v>-0.28554531024413277</v>
+      </c>
+      <c r="AD9" s="1">
         <f t="shared" si="19"/>
-        <v>1.09615763701558</v>
-      </c>
-      <c r="AA9" s="1">
+        <v>0.51591191349354959</v>
+      </c>
+      <c r="AE9" s="1">
         <f t="shared" si="20"/>
-        <v>1.7841995635207</v>
-      </c>
-      <c r="AB9" s="1">
-        <f t="shared" si="21"/>
-        <v>0.150347996902376</v>
-      </c>
-      <c r="AC9" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.285545310244133</v>
-      </c>
-      <c r="AD9" s="1">
-        <f t="shared" si="23"/>
-        <v>0.51591191349355</v>
-      </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="24"/>
-        <v>0.303929821293606</v>
+        <v>0.30392982129360646</v>
       </c>
       <c r="AF9" s="8">
-        <v>39.7333333333333</v>
+        <v>39.733333333333299</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>0.06727</v>
+        <v>6.7269999999999996E-2</v>
       </c>
       <c r="B10" s="4">
-        <v>0.361104</v>
+        <v>0.36110399999999998</v>
       </c>
       <c r="C10" s="4">
-        <v>0.264514</v>
+        <v>0.26451400000000003</v>
       </c>
       <c r="D10" s="4">
-        <v>0.576031</v>
+        <v>0.57603099999999996</v>
       </c>
       <c r="E10" s="4">
-        <v>0.864114</v>
+        <v>0.86411400000000005</v>
       </c>
       <c r="F10" s="4">
-        <v>0.900784</v>
+        <v>0.90078400000000003</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>0.546014839122697</v>
+        <v>0.54601483912269655</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>0.427676624232896</v>
+        <v>0.42767662423289554</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>0.573113640921925</v>
+        <v>0.57311364092192507</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="3"/>
-        <v>0.627332370622447</v>
+        <v>0.62733237062244718</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>1.14603693576827</v>
+        <v>1.1460369357682672</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="5"/>
-        <v>0.840941879320565</v>
+        <v>0.84094187932056508</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="6"/>
-        <v>1.17488844111241</v>
+        <v>1.1748884411124074</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="7"/>
-        <v>6.62896839998234</v>
+        <v>6.628968399982341</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="8"/>
-        <v>1.40990708972978</v>
+        <v>1.4099070897297838</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="9"/>
@@ -2246,19 +1661,19 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="10"/>
-        <v>1.0424888529358</v>
+        <v>1.0424888529357952</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="11"/>
-        <v>0.480095797322564</v>
+        <v>0.48009579732256447</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="12"/>
-        <v>0.589417391742556</v>
+        <v>0.58941739174255636</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="13"/>
-        <v>3.40543033639051</v>
+        <v>3.4054303363905123</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="14"/>
@@ -2270,70 +1685,70 @@
       </c>
       <c r="W10" s="1">
         <f t="shared" si="16"/>
-        <v>-0.031468345436103</v>
+        <v>-3.1468345436103023E-2</v>
       </c>
       <c r="X10" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37042406393976418</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86102014970239271</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="23"/>
+        <v>1.1313237345535678</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="24"/>
+        <v>1.8272784319431159</v>
+      </c>
+      <c r="AB10" s="1">
         <f t="shared" si="17"/>
-        <v>0.370424063939764</v>
-      </c>
-      <c r="Y10" s="1">
+        <v>0.15085323562499595</v>
+      </c>
+      <c r="AC10" s="1">
         <f t="shared" si="18"/>
-        <v>0.861020149702393</v>
-      </c>
-      <c r="Z10" s="1">
+        <v>-0.26012637043664721</v>
+      </c>
+      <c r="AD10" s="1">
         <f t="shared" si="19"/>
-        <v>1.13132373455357</v>
-      </c>
-      <c r="AA10" s="1">
+        <v>0.53318542319807005</v>
+      </c>
+      <c r="AE10" s="1">
         <f t="shared" si="20"/>
-        <v>1.82727843194312</v>
-      </c>
-      <c r="AB10" s="1">
-        <f t="shared" si="21"/>
-        <v>0.150853235624996</v>
-      </c>
-      <c r="AC10" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.260126370436647</v>
-      </c>
-      <c r="AD10" s="1">
-        <f t="shared" si="23"/>
-        <v>0.53318542319807</v>
-      </c>
-      <c r="AE10" s="1">
-        <f t="shared" si="24"/>
-        <v>0.322210985055873</v>
+        <v>0.32221098505587348</v>
       </c>
       <c r="AF10" s="8">
         <v>44.5</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>0.059609</v>
+        <v>5.9609000000000002E-2</v>
       </c>
       <c r="B11" s="4">
-        <v>0.365451</v>
+        <v>0.36545100000000003</v>
       </c>
       <c r="C11" s="4">
-        <v>0.268435</v>
+        <v>0.26843499999999998</v>
       </c>
       <c r="D11" s="4">
-        <v>0.551842</v>
+        <v>0.55184200000000005</v>
       </c>
       <c r="E11" s="4">
-        <v>0.812722</v>
+        <v>0.81272200000000006</v>
       </c>
       <c r="F11" s="4">
-        <v>0.840463</v>
+        <v>0.84046299999999996</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>0.51585267535878</v>
+        <v>0.51585267535877966</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>0.39390205271686</v>
+        <v>0.39390205271686035</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="2"/>
@@ -2341,47 +1756,47 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>0.575548746793888</v>
+        <v>0.57554874679388757</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>1.04846012231534</v>
+        <v>1.0484601223153425</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="5"/>
-        <v>0.77358540313521</v>
+        <v>0.77358540313520985</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="6"/>
-        <v>1.11093614374663</v>
+        <v>1.1109361437466254</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="7"/>
-        <v>4.48778286824934</v>
+        <v>4.4877828682493419</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="8"/>
-        <v>1.32450449059096</v>
+        <v>1.3245044905909551</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="9"/>
-        <v>0.572028</v>
+        <v>0.57202799999999998</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="10"/>
-        <v>1.01839756957309</v>
+        <v>1.0183975695730869</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="11"/>
-        <v>0.450806920650832</v>
+        <v>0.4508069206508325</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="12"/>
-        <v>0.543214666757196</v>
+        <v>0.54321466675719643</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="13"/>
-        <v>3.13097397880306</v>
+        <v>3.1309739788030622</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="14"/>
@@ -2389,197 +1804,197 @@
       </c>
       <c r="V11" s="1">
         <f t="shared" si="15"/>
-        <v>0.260277320366706</v>
+        <v>0.26027732036670631</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0250167283194666</v>
+        <v>-2.5016728319466629E-2</v>
       </c>
       <c r="X11" s="1">
+        <f t="shared" si="21"/>
+        <v>0.38043299658339524</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86754615186340645</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="23"/>
+        <v>1.3157144986601139</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="24"/>
+        <v>1.689271405372236</v>
+      </c>
+      <c r="AB11" s="1">
         <f t="shared" si="17"/>
-        <v>0.380432996583395</v>
-      </c>
-      <c r="Y11" s="1">
+        <v>0.14290156626185316</v>
+      </c>
+      <c r="AC11" s="1">
         <f t="shared" si="18"/>
-        <v>0.867546151863406</v>
-      </c>
-      <c r="Z11" s="1">
+        <v>-0.27543929205728901</v>
+      </c>
+      <c r="AD11" s="1">
         <f t="shared" si="19"/>
-        <v>1.31571449866011</v>
-      </c>
-      <c r="AA11" s="1">
+        <v>0.4760543880495558</v>
+      </c>
+      <c r="AE11" s="1">
         <f t="shared" si="20"/>
-        <v>1.68927140537224</v>
-      </c>
-      <c r="AB11" s="1">
-        <f t="shared" si="21"/>
-        <v>0.142901566261853</v>
-      </c>
-      <c r="AC11" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.275439292057289</v>
-      </c>
-      <c r="AD11" s="1">
-        <f t="shared" si="23"/>
-        <v>0.476054388049556</v>
-      </c>
-      <c r="AE11" s="1">
-        <f t="shared" si="24"/>
-        <v>0.275628280277205</v>
+        <v>0.27562828027720526</v>
       </c>
       <c r="AF11" s="8">
-        <v>43.7666666666667</v>
+        <v>43.766666666666701</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>0.071853</v>
+        <v>7.1853E-2</v>
       </c>
       <c r="B12" s="4">
-        <v>0.353639</v>
+        <v>0.35363899999999998</v>
       </c>
       <c r="C12" s="4">
-        <v>0.249204</v>
+        <v>0.24920400000000001</v>
       </c>
       <c r="D12" s="4">
-        <v>0.553473</v>
+        <v>0.55347299999999999</v>
       </c>
       <c r="E12" s="4">
-        <v>0.846816</v>
+        <v>0.84681600000000001</v>
       </c>
       <c r="F12" s="4">
-        <v>0.882283</v>
+        <v>0.88228300000000004</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>0.559510626282052</v>
+        <v>0.55951062628205184</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>0.427732494445442</v>
+        <v>0.42773249444544248</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>0.5820570436663</v>
+        <v>0.58205704366629951</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
-        <v>0.638088608138955</v>
+        <v>0.63808860813895463</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>1.19221784747436</v>
+        <v>1.192217847474363</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="5"/>
-        <v>0.824042194072326</v>
+        <v>0.82404219407232637</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="6"/>
-        <v>1.12789093175776</v>
+        <v>1.127890931757761</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="7"/>
-        <v>5.75962894297055</v>
+        <v>5.7596289429705463</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="8"/>
-        <v>1.36500036357392</v>
+        <v>1.3650003635739163</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="9"/>
-        <v>0.633079</v>
+        <v>0.63307900000000006</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="10"/>
-        <v>1.08065560408717</v>
+        <v>1.0806556040871729</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="11"/>
-        <v>0.490193861804261</v>
+        <v>0.49019386180426133</v>
       </c>
       <c r="S12" s="1">
         <f t="shared" si="12"/>
-        <v>0.59515916171728</v>
+        <v>0.59515916171727967</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="13"/>
-        <v>3.54040464840051</v>
+        <v>3.5404046484005072</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="14"/>
-        <v>42.16214</v>
+        <v>42.162140000000008</v>
       </c>
       <c r="V12" s="1">
         <f t="shared" si="15"/>
-        <v>0.290599892000527</v>
+        <v>0.29059989200052677</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0313454772348246</v>
+        <v>-3.1345477234824635E-2</v>
       </c>
       <c r="X12" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37557896988821732</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84938625101662646</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="23"/>
+        <v>1.1994843711915992</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7580961081045947</v>
+      </c>
+      <c r="AB12" s="1">
         <f t="shared" si="17"/>
-        <v>0.375578969888217</v>
-      </c>
-      <c r="Y12" s="1">
+        <v>0.15360080604554169</v>
+      </c>
+      <c r="AC12" s="1">
         <f t="shared" si="18"/>
-        <v>0.849386251016626</v>
-      </c>
-      <c r="Z12" s="1">
+        <v>-0.22339229979009145</v>
+      </c>
+      <c r="AD12" s="1">
         <f t="shared" si="19"/>
-        <v>1.1994843711916</v>
-      </c>
-      <c r="AA12" s="1">
+        <v>0.55756084096808667</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="20"/>
-        <v>1.75809610810459</v>
-      </c>
-      <c r="AB12" s="1">
-        <f t="shared" si="21"/>
-        <v>0.153600806045542</v>
-      </c>
-      <c r="AC12" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.223392299790091</v>
-      </c>
-      <c r="AD12" s="1">
-        <f t="shared" si="23"/>
-        <v>0.557560840968087</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="24"/>
-        <v>0.34819282447484</v>
+        <v>0.34819282447483951</v>
       </c>
       <c r="AF12" s="8">
-        <v>41.2333333333333</v>
+        <v>41.233333333333299</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>0.063163</v>
+        <v>6.3162999999999997E-2</v>
       </c>
       <c r="B13" s="4">
-        <v>0.372117</v>
+        <v>0.37211699999999998</v>
       </c>
       <c r="C13" s="4">
         <v>0.279053</v>
       </c>
       <c r="D13" s="4">
-        <v>0.573839</v>
+        <v>0.57383899999999999</v>
       </c>
       <c r="E13" s="4">
-        <v>0.858496</v>
+        <v>0.85849600000000004</v>
       </c>
       <c r="F13" s="4">
-        <v>0.893902</v>
+        <v>0.89390199999999997</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>0.52418805495522</v>
+        <v>0.52418805495521992</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>0.41214626320774</v>
+        <v>0.41214626320774012</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="2"/>
@@ -2587,396 +2002,396 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="3"/>
-        <v>0.599588466225927</v>
+        <v>0.59958846622592687</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="4"/>
-        <v>1.07469306820415</v>
+        <v>1.0746930682041489</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="5"/>
-        <v>0.80139458390485</v>
+        <v>0.80139458390484963</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="6"/>
-        <v>1.19078933680284</v>
+        <v>1.1907893368028442</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="7"/>
-        <v>6.3171500452284</v>
+        <v>6.3171500452284048</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="8"/>
-        <v>1.42367606703797</v>
+        <v>1.4236760670379673</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="9"/>
-        <v>0.614849</v>
+        <v>0.61484899999999998</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="10"/>
-        <v>1.08574694863392</v>
+        <v>1.0857469486339242</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="11"/>
-        <v>0.461267634691344</v>
+        <v>0.46126763469134369</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" si="12"/>
-        <v>0.56771163578102</v>
+        <v>0.56771163578102046</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="13"/>
-        <v>3.20334130075649</v>
+        <v>3.2033413007564873</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="14"/>
-        <v>40.6135</v>
+        <v>40.613499999999995</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="15"/>
-        <v>0.272868950641755</v>
+        <v>0.2728689506417552</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0301853012263897</v>
+        <v>-3.0185301226389707E-2</v>
       </c>
       <c r="X13" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37002899351097612</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86800687518611597</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="23"/>
+        <v>1.1414948896758652</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="24"/>
+        <v>1.8014307954556239</v>
+      </c>
+      <c r="AB13" s="1">
         <f t="shared" si="17"/>
-        <v>0.370028993510976</v>
-      </c>
-      <c r="Y13" s="1">
+        <v>0.14630534285733679</v>
+      </c>
+      <c r="AC13" s="1">
         <f t="shared" si="18"/>
-        <v>0.868006875186116</v>
-      </c>
-      <c r="Z13" s="1">
+        <v>-0.29519809840032862</v>
+      </c>
+      <c r="AD13" s="1">
         <f t="shared" si="19"/>
-        <v>1.14149488967587</v>
-      </c>
-      <c r="AA13" s="1">
+        <v>0.4967276593372591</v>
+      </c>
+      <c r="AE13" s="1">
         <f t="shared" si="20"/>
-        <v>1.80143079545562</v>
-      </c>
-      <c r="AB13" s="1">
-        <f t="shared" si="21"/>
-        <v>0.146305342857337</v>
-      </c>
-      <c r="AC13" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.295198098400329</v>
-      </c>
-      <c r="AD13" s="1">
-        <f t="shared" si="23"/>
-        <v>0.496727659337259</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="24"/>
-        <v>0.287259557402014</v>
+        <v>0.28725955740201392</v>
       </c>
       <c r="AF13" s="8">
-        <v>42.2333333333333</v>
+        <v>42.233333333333299</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>0.065129</v>
+        <v>6.5129000000000006E-2</v>
       </c>
       <c r="B14" s="4">
-        <v>0.385929</v>
+        <v>0.38592900000000002</v>
       </c>
       <c r="C14" s="4">
-        <v>0.291788</v>
+        <v>0.29178799999999999</v>
       </c>
       <c r="D14" s="4">
         <v>0.589862</v>
       </c>
       <c r="E14" s="4">
-        <v>0.845987</v>
+        <v>0.84598700000000004</v>
       </c>
       <c r="F14" s="4">
-        <v>0.872929</v>
+        <v>0.87292899999999995</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>0.49895468169521</v>
+        <v>0.49895468169521001</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>0.386858565461712</v>
+        <v>0.38685856546171205</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>0.523639453432625</v>
+        <v>0.52363945343262541</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="3"/>
-        <v>0.564604809180341</v>
+        <v>0.56460480918034139</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>0.996867863230906</v>
+        <v>0.99686786323090637</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="5"/>
-        <v>0.811770132722388</v>
+        <v>0.81177013272238763</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="6"/>
-        <v>1.19453920577454</v>
+        <v>1.1945392057745421</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="7"/>
-        <v>5.66789167148228</v>
+        <v>5.6678916714822787</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="8"/>
-        <v>1.42154408855002</v>
+        <v>1.421544088550021</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="9"/>
-        <v>0.581141</v>
+        <v>0.58114099999999991</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="10"/>
-        <v>0.949653441762784</v>
+        <v>0.94965344176278355</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="11"/>
-        <v>0.438690678839329</v>
+        <v>0.43869067883932944</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="12"/>
-        <v>0.53848214703464</v>
+        <v>0.53848214703464026</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="13"/>
-        <v>2.99165490013297</v>
+        <v>2.9916549001329731</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="14"/>
-        <v>38.6341</v>
+        <v>38.634099999999997</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="15"/>
-        <v>0.243035003352746</v>
+        <v>0.24303500335274575</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0231317993984804</v>
+        <v>-2.3131799398480413E-2</v>
       </c>
       <c r="X14" s="1">
+        <f t="shared" si="21"/>
+        <v>0.36760293238245001</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86114078233968472</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="23"/>
+        <v>1.1951349985353483</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7101394305461501</v>
+      </c>
+      <c r="AB14" s="1">
         <f t="shared" si="17"/>
-        <v>0.36760293238245</v>
-      </c>
-      <c r="Y14" s="1">
+        <v>0.14139654547852501</v>
+      </c>
+      <c r="AC14" s="1">
         <f t="shared" si="18"/>
-        <v>0.861140782339685</v>
-      </c>
-      <c r="Z14" s="1">
+        <v>-0.32724986005090684</v>
+      </c>
+      <c r="AD14" s="1">
         <f t="shared" si="19"/>
-        <v>1.19513499853535</v>
-      </c>
-      <c r="AA14" s="1">
+        <v>0.46340181351079412</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="20"/>
-        <v>1.71013943054615</v>
-      </c>
-      <c r="AB14" s="1">
-        <f t="shared" si="21"/>
-        <v>0.141396545478525</v>
-      </c>
-      <c r="AC14" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.327249860050907</v>
-      </c>
-      <c r="AD14" s="1">
-        <f t="shared" si="23"/>
-        <v>0.463401813510794</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="24"/>
-        <v>0.254770816802935</v>
+        <v>0.25477081680293462</v>
       </c>
       <c r="AF14" s="8">
         <v>45.9</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>0.075617</v>
+        <v>7.5617000000000004E-2</v>
       </c>
       <c r="B15" s="4">
-        <v>0.417084</v>
+        <v>0.41708400000000001</v>
       </c>
       <c r="C15" s="4">
-        <v>0.310355</v>
+        <v>0.31035499999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>0.639091</v>
+        <v>0.63909099999999996</v>
       </c>
       <c r="E15" s="4">
-        <v>0.913324</v>
+        <v>0.91332400000000002</v>
       </c>
       <c r="F15" s="4">
-        <v>0.945723</v>
+        <v>0.94572299999999998</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>0.505834828728789</v>
+        <v>0.50583482872878904</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>0.387904523531212</v>
+        <v>0.38790452353121163</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>0.542716211922249</v>
+        <v>0.54271621192224939</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="3"/>
-        <v>0.590364513161685</v>
+        <v>0.5903645131616847</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="4"/>
-        <v>1.01762474802274</v>
+        <v>1.0176247480227423</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="5"/>
-        <v>0.894775494877157</v>
+        <v>0.8947754948771568</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="6"/>
-        <v>1.32433933400518</v>
+        <v>1.3243393340051766</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="7"/>
-        <v>10.911013429323</v>
+        <v>10.911013429322999</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="8"/>
-        <v>1.62240013998586</v>
+        <v>1.6224001399858641</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="9"/>
-        <v>0.635368</v>
+        <v>0.63536799999999993</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="10"/>
-        <v>0.932760634673416</v>
+        <v>0.93276063467341586</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="11"/>
-        <v>0.448681499182955</v>
+        <v>0.44868149918295458</v>
       </c>
       <c r="S15" s="1">
         <f t="shared" si="12"/>
-        <v>0.566913806023238</v>
+        <v>0.56691380602323771</v>
       </c>
       <c r="T15" s="1">
         <f t="shared" si="13"/>
-        <v>3.04722978524593</v>
+        <v>3.047229785245928</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="14"/>
-        <v>42.39124</v>
+        <v>42.391239999999996</v>
       </c>
       <c r="V15" s="1">
         <f t="shared" si="15"/>
-        <v>0.244118597730396</v>
+        <v>0.24411859773039574</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0257937803225596</v>
+        <v>-2.5793780322559551E-2</v>
       </c>
       <c r="X15" s="1">
+        <f t="shared" si="21"/>
+        <v>0.36733161768321676</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="22"/>
+        <v>0.85192590126696299</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="23"/>
+        <v>0.97282002430851866</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="24"/>
+        <v>1.6872352409170817</v>
+      </c>
+      <c r="AB15" s="1">
         <f t="shared" si="17"/>
-        <v>0.367331617683217</v>
-      </c>
-      <c r="Y15" s="1">
+        <v>0.14895544448250905</v>
+      </c>
+      <c r="AC15" s="1">
         <f t="shared" si="18"/>
-        <v>0.851925901266963</v>
-      </c>
-      <c r="Z15" s="1">
+        <v>-0.36466810993066923</v>
+      </c>
+      <c r="AD15" s="1">
         <f t="shared" si="19"/>
-        <v>0.972820024308519</v>
-      </c>
-      <c r="AA15" s="1">
+        <v>0.49014333364550622</v>
+      </c>
+      <c r="AE15" s="1">
         <f t="shared" si="20"/>
-        <v>1.68723524091708</v>
-      </c>
-      <c r="AB15" s="1">
-        <f t="shared" si="21"/>
-        <v>0.148955444482509</v>
-      </c>
-      <c r="AC15" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.364668109930669</v>
-      </c>
-      <c r="AD15" s="1">
-        <f t="shared" si="23"/>
-        <v>0.490143333645506</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="24"/>
-        <v>0.268732023267794</v>
+        <v>0.26873202326779433</v>
       </c>
       <c r="AF15" s="8">
         <v>38.3333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>0.06369</v>
+        <v>6.3689999999999997E-2</v>
       </c>
       <c r="B16" s="4">
-        <v>0.383775</v>
+        <v>0.38377499999999998</v>
       </c>
       <c r="C16" s="4">
-        <v>0.288705</v>
+        <v>0.28870499999999999</v>
       </c>
       <c r="D16" s="4">
-        <v>0.588277</v>
+        <v>0.58827700000000005</v>
       </c>
       <c r="E16" s="4">
         <v>0.87839</v>
       </c>
       <c r="F16" s="4">
-        <v>0.913319</v>
+        <v>0.91331899999999999</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>0.519635215270244</v>
+        <v>0.51963521527024414</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>0.40825414349307</v>
+        <v>0.40825414349306993</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="2"/>
-        <v>0.550474611403834</v>
+        <v>0.55047461140383447</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="3"/>
-        <v>0.599159085737878</v>
+        <v>0.59915908573787779</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="4"/>
-        <v>1.06029812159197</v>
+        <v>1.0602981215919678</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="5"/>
-        <v>0.815375688572072</v>
+        <v>0.81537568857207199</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="6"/>
-        <v>1.23491659578656</v>
+        <v>1.2349165957865582</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="7"/>
-        <v>7.51022942192254</v>
+        <v>7.5102294219225394</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="8"/>
-        <v>1.4821193557548</v>
+        <v>1.4821193557547974</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="9"/>
@@ -2984,126 +2399,126 @@
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="10"/>
-        <v>1.08502129705046</v>
+        <v>1.0850212970504582</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="11"/>
-        <v>0.458592506446289</v>
+        <v>0.45859250644628879</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" si="12"/>
-        <v>0.569711708104027</v>
+        <v>0.56971170810402727</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="13"/>
-        <v>3.16350253719194</v>
+        <v>3.1635025371919436</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="14"/>
-        <v>41.27964</v>
+        <v>41.279640000000001</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="15"/>
-        <v>0.270412238025197</v>
+        <v>0.27041223802519748</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0290584880168782</v>
+        <v>-2.905848801687819E-2</v>
       </c>
       <c r="X16" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37069231078311876</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86962249068329966</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0775891171939656</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7902902113856711</v>
+      </c>
+      <c r="AB16" s="1">
         <f t="shared" si="17"/>
-        <v>0.370692310783119</v>
-      </c>
-      <c r="Y16" s="1">
+        <v>0.14706015477422943</v>
+      </c>
+      <c r="AC16" s="1">
         <f t="shared" si="18"/>
-        <v>0.8696224906833</v>
-      </c>
-      <c r="Z16" s="1">
+        <v>-0.31670134180063902</v>
+      </c>
+      <c r="AD16" s="1">
         <f t="shared" si="19"/>
-        <v>1.07758911719397</v>
-      </c>
-      <c r="AA16" s="1">
+        <v>0.49292838035856223</v>
+      </c>
+      <c r="AE16" s="1">
         <f t="shared" si="20"/>
-        <v>1.79029021138567</v>
-      </c>
-      <c r="AB16" s="1">
-        <f t="shared" si="21"/>
-        <v>0.147060154774229</v>
-      </c>
-      <c r="AC16" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.316701341800639</v>
-      </c>
-      <c r="AD16" s="1">
-        <f t="shared" si="23"/>
-        <v>0.492928380358562</v>
-      </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="24"/>
-        <v>0.280019677107633</v>
+        <v>0.28001967710763337</v>
       </c>
       <c r="AF16" s="8">
-        <v>44.7333333333333</v>
+        <v>44.733333333333299</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>0.062618</v>
+        <v>6.2617999999999993E-2</v>
       </c>
       <c r="B17" s="4">
-        <v>0.349741</v>
+        <v>0.34974100000000002</v>
       </c>
       <c r="C17" s="4">
         <v>0.258461</v>
       </c>
       <c r="D17" s="4">
-        <v>0.557953</v>
+        <v>0.55795300000000003</v>
       </c>
       <c r="E17" s="4">
-        <v>0.848518</v>
+        <v>0.84851799999999999</v>
       </c>
       <c r="F17" s="4">
-        <v>0.881439</v>
+        <v>0.88143899999999997</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>0.54651987016405</v>
+        <v>0.54651987016404957</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>0.431860491560942</v>
+        <v>0.43186049156094158</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>0.569831697054698</v>
+        <v>0.56983169705469849</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="3"/>
-        <v>0.622543365124205</v>
+        <v>0.62254336512420494</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="4"/>
-        <v>1.14773552215895</v>
+        <v>1.1477355221589458</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="5"/>
-        <v>0.808580418046823</v>
+        <v>0.80858041804682335</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="6"/>
-        <v>1.14426618154945</v>
+        <v>1.1442661815494533</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="7"/>
-        <v>5.81877054699568</v>
+        <v>5.8187705469956823</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="8"/>
-        <v>1.35551987746421</v>
+        <v>1.3555198774642105</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="9"/>
-        <v>0.622978</v>
+        <v>0.62297800000000003</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="10"/>
@@ -3111,360 +2526,360 @@
       </c>
       <c r="R17" s="1">
         <f t="shared" si="11"/>
-        <v>0.4792507115932</v>
+        <v>0.47925071159319954</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" si="12"/>
-        <v>0.58349794830407</v>
+        <v>0.58349794830407009</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="13"/>
-        <v>3.41033656915357</v>
+        <v>3.4103365691535665</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="14"/>
-        <v>41.02988</v>
+        <v>41.029880000000006</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="15"/>
-        <v>0.283784542503728</v>
+        <v>0.28378454250372837</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0288806035617159</v>
+        <v>-2.8880603561715922E-2</v>
       </c>
       <c r="X17" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37077940466076992</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86734275578699171</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="23"/>
+        <v>1.1948697792421206</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="24"/>
+        <v>1.8624910209251715</v>
+      </c>
+      <c r="AB17" s="1">
         <f t="shared" si="17"/>
-        <v>0.37077940466077</v>
-      </c>
-      <c r="Y17" s="1">
+        <v>0.14866241448373624</v>
+      </c>
+      <c r="AC17" s="1">
         <f t="shared" si="18"/>
-        <v>0.867342755786992</v>
-      </c>
-      <c r="Z17" s="1">
+        <v>-0.2463419566658529</v>
+      </c>
+      <c r="AD17" s="1">
         <f t="shared" si="19"/>
-        <v>1.19486977924212</v>
-      </c>
-      <c r="AA17" s="1">
+        <v>0.5257074094451778</v>
+      </c>
+      <c r="AE17" s="1">
         <f t="shared" si="20"/>
-        <v>1.86249102092517</v>
-      </c>
-      <c r="AB17" s="1">
-        <f t="shared" si="21"/>
-        <v>0.148662414483736</v>
-      </c>
-      <c r="AC17" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.246341956665853</v>
-      </c>
-      <c r="AD17" s="1">
-        <f t="shared" si="23"/>
-        <v>0.525707409445178</v>
-      </c>
-      <c r="AE17" s="1">
-        <f t="shared" si="24"/>
-        <v>0.31977333963195</v>
+        <v>0.31977333963195015</v>
       </c>
       <c r="AF17" s="8">
         <v>52.8</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>0.066559</v>
+        <v>6.6558999999999993E-2</v>
       </c>
       <c r="B18" s="4">
         <v>0.378359</v>
       </c>
       <c r="C18" s="4">
-        <v>0.283645</v>
+        <v>0.28364499999999998</v>
       </c>
       <c r="D18" s="4">
-        <v>0.590954</v>
+        <v>0.59095399999999998</v>
       </c>
       <c r="E18" s="4">
-        <v>0.869599</v>
+        <v>0.86959900000000001</v>
       </c>
       <c r="F18" s="4">
-        <v>0.901867</v>
+        <v>0.90186699999999997</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>0.521481014110359</v>
+        <v>0.52148101411035919</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>0.408918425340526</v>
+        <v>0.40891842534052586</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>0.550178818068338</v>
+        <v>0.55017881806833779</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="3"/>
-        <v>0.598445761369775</v>
+        <v>0.59844576136977456</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="4"/>
-        <v>1.06611465286332</v>
+        <v>1.0661146528633232</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="5"/>
-        <v>0.833341715133353</v>
+        <v>0.83334171513335331</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="6"/>
-        <v>1.2139218683474</v>
+        <v>1.2139218683473976</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="7"/>
-        <v>6.91610493784557</v>
+        <v>6.916104937845569</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="8"/>
-        <v>1.45078429511567</v>
+        <v>1.4507842951156695</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="9"/>
-        <v>0.618222</v>
+        <v>0.61822200000000005</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="10"/>
-        <v>1.01172760966975</v>
+        <v>1.0117276096697461</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="11"/>
-        <v>0.459469703726165</v>
+        <v>0.4594697037261653</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="12"/>
-        <v>0.567794888586833</v>
+        <v>0.56779488858683336</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="13"/>
-        <v>3.1795624812706</v>
+        <v>3.1795624812706023</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="14"/>
-        <v>40.88188</v>
+        <v>40.881880000000002</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="15"/>
-        <v>0.262260525410118</v>
+        <v>0.26226052541011818</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0272186194656823</v>
+        <v>-2.7218619465682308E-2</v>
       </c>
       <c r="X18" s="1">
+        <f t="shared" si="21"/>
+        <v>0.3672471953760067</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86254189788378244</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="23"/>
+        <v>1.1145546305383554</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7869380251453195</v>
+      </c>
+      <c r="AB18" s="1">
         <f t="shared" si="17"/>
-        <v>0.367247195376007</v>
-      </c>
-      <c r="Y18" s="1">
+        <v>0.14667141361415467</v>
+      </c>
+      <c r="AC18" s="1">
         <f t="shared" si="18"/>
-        <v>0.862541897883782</v>
-      </c>
-      <c r="Z18" s="1">
+        <v>-0.30551355006960845</v>
+      </c>
+      <c r="AD18" s="1">
         <f t="shared" si="19"/>
-        <v>1.11455463053836</v>
-      </c>
-      <c r="AA18" s="1">
+        <v>0.49783631705069781</v>
+      </c>
+      <c r="AE18" s="1">
         <f t="shared" si="20"/>
-        <v>1.78693802514532</v>
-      </c>
-      <c r="AB18" s="1">
-        <f t="shared" si="21"/>
-        <v>0.146671413614155</v>
-      </c>
-      <c r="AC18" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.305513550069608</v>
-      </c>
-      <c r="AD18" s="1">
-        <f t="shared" si="23"/>
-        <v>0.497836317050698</v>
-      </c>
-      <c r="AE18" s="1">
-        <f t="shared" si="24"/>
-        <v>0.285994989298431</v>
+        <v>0.28599498929843054</v>
       </c>
       <c r="AF18" s="8">
-        <v>43.3666666666667</v>
+        <v>43.366666666666703</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>0.077406</v>
+        <v>7.7406000000000003E-2</v>
       </c>
       <c r="B19" s="4">
         <v>0.391266</v>
       </c>
       <c r="C19" s="4">
-        <v>0.29731</v>
+        <v>0.29731000000000002</v>
       </c>
       <c r="D19" s="4">
-        <v>0.601638</v>
+        <v>0.60163800000000001</v>
       </c>
       <c r="E19" s="4">
-        <v>0.851339</v>
+        <v>0.85133899999999996</v>
       </c>
       <c r="F19" s="4">
         <v>0.87827</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>0.494190101907144</v>
+        <v>0.49419010190714363</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>0.383607869331787</v>
+        <v>0.38360786933178737</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>0.520082598264481</v>
+        <v>0.52008259826448144</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="3"/>
-        <v>0.56037971860635</v>
+        <v>0.5603797186063505</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="4"/>
-        <v>0.982687379880404</v>
+        <v>0.98268737988040433</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="5"/>
-        <v>0.827842034148868</v>
+        <v>0.82784203414886814</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="6"/>
-        <v>1.21154278558112</v>
+        <v>1.2115427855811238</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="7"/>
-        <v>5.90787092781563</v>
+        <v>5.9078709278156323</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="8"/>
-        <v>1.44278124763854</v>
+        <v>1.4427812476385415</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="9"/>
-        <v>0.58096</v>
+        <v>0.58095999999999992</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="10"/>
-        <v>0.908992928682211</v>
+        <v>0.90899292868221127</v>
       </c>
       <c r="R19" s="1">
         <f t="shared" si="11"/>
-        <v>0.434987046826098</v>
+        <v>0.43498704682609796</v>
       </c>
       <c r="S19" s="1">
         <f t="shared" si="12"/>
-        <v>0.535821501625284</v>
+        <v>0.53582150162528397</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="13"/>
-        <v>2.9540546903905</v>
+        <v>2.9540546903905014</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="14"/>
-        <v>38.61584</v>
+        <v>38.615839999999999</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="15"/>
-        <v>0.235315333707617</v>
+        <v>0.23531533370761665</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="16"/>
-        <v>-0.022908691879753</v>
+        <v>-2.2908691879753005E-2</v>
       </c>
       <c r="X19" s="1">
+        <f t="shared" si="21"/>
+        <v>0.35240155956199531</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="22"/>
+        <v>0.83800786040457231</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="23"/>
+        <v>1.1748582134778365</v>
+      </c>
+      <c r="AA19" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7056634542397899</v>
+      </c>
+      <c r="AB19" s="1">
         <f t="shared" si="17"/>
-        <v>0.352401559561995</v>
-      </c>
-      <c r="Y19" s="1">
+        <v>0.14087039612613667</v>
+      </c>
+      <c r="AC19" s="1">
         <f t="shared" si="18"/>
-        <v>0.838007860404572</v>
-      </c>
-      <c r="Z19" s="1">
+        <v>-0.3395288158105132</v>
+      </c>
+      <c r="AD19" s="1">
         <f t="shared" si="19"/>
-        <v>1.17485821347784</v>
-      </c>
-      <c r="AA19" s="1">
+        <v>0.47131589750079894</v>
+      </c>
+      <c r="AE19" s="1">
         <f t="shared" si="20"/>
-        <v>1.70566345423979</v>
-      </c>
-      <c r="AB19" s="1">
-        <f t="shared" si="21"/>
-        <v>0.140870396126137</v>
-      </c>
-      <c r="AC19" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.339528815810513</v>
-      </c>
-      <c r="AD19" s="1">
-        <f t="shared" si="23"/>
-        <v>0.471315897500799</v>
-      </c>
-      <c r="AE19" s="1">
-        <f t="shared" si="24"/>
-        <v>0.258731737519026</v>
+        <v>0.25873173751902556</v>
       </c>
       <c r="AF19" s="8">
         <v>43.8</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>0.060922</v>
+        <v>6.0921999999999997E-2</v>
       </c>
       <c r="B20" s="4">
-        <v>0.322424</v>
+        <v>0.32242399999999999</v>
       </c>
       <c r="C20" s="4">
-        <v>0.234614</v>
+        <v>0.23461399999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>0.517278</v>
+        <v>0.51727800000000002</v>
       </c>
       <c r="E20" s="4">
-        <v>0.770766</v>
+        <v>0.77076599999999995</v>
       </c>
       <c r="F20" s="4">
-        <v>0.793178</v>
+        <v>0.79317800000000005</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>0.543460155362175</v>
+        <v>0.54346015536217451</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>0.421973069248711</v>
+        <v>0.42197306924871064</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>0.54840318577398</v>
+        <v>0.54840318577397973</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="3"/>
-        <v>0.592640446376779</v>
+        <v>0.59264044637677915</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="4"/>
-        <v>1.13747893604079</v>
+        <v>1.1374789360407873</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="5"/>
-        <v>0.762069005283572</v>
+        <v>0.76206900528357224</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="6"/>
-        <v>1.00702913301262</v>
+        <v>1.0070291330126235</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="7"/>
-        <v>3.46012371637715</v>
+        <v>3.4601237163771512</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="8"/>
@@ -3472,372 +2887,372 @@
       </c>
       <c r="P20" s="1">
         <f t="shared" si="9"/>
-        <v>0.558564</v>
+        <v>0.55856400000000006</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="10"/>
-        <v>0.976070528967254</v>
+        <v>0.97607052896725444</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="11"/>
-        <v>0.470254051214354</v>
+        <v>0.4702540512143541</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" si="12"/>
-        <v>0.550960323634758</v>
+        <v>0.55096032363475833</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="13"/>
-        <v>3.38077864066083</v>
+        <v>3.3807786406608304</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="14"/>
-        <v>37.02624</v>
+        <v>37.026240000000001</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="15"/>
-        <v>0.268439528620577</v>
+        <v>0.26843952862057696</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0218059685228141</v>
+        <v>-2.1805968522814051E-2</v>
       </c>
       <c r="X20" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37145676659747506</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="22"/>
+        <v>0.85734223158880685</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="23"/>
+        <v>1.5078350265530334</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7900693674942987</v>
+      </c>
+      <c r="AB20" s="1">
         <f t="shared" si="17"/>
-        <v>0.371456766597475</v>
-      </c>
-      <c r="Y20" s="1">
+        <v>0.14197153710673635</v>
+      </c>
+      <c r="AC20" s="1">
         <f t="shared" si="18"/>
-        <v>0.857342231588807</v>
-      </c>
-      <c r="Z20" s="1">
+        <v>-0.19703183714911776</v>
+      </c>
+      <c r="AD20" s="1">
         <f t="shared" si="19"/>
-        <v>1.50783502655303</v>
-      </c>
-      <c r="AA20" s="1">
+        <v>0.5089056020396896</v>
+      </c>
+      <c r="AE20" s="1">
         <f t="shared" si="20"/>
-        <v>1.7900693674943</v>
-      </c>
-      <c r="AB20" s="1">
-        <f t="shared" si="21"/>
-        <v>0.141971537106736</v>
-      </c>
-      <c r="AC20" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.197031837149118</v>
-      </c>
-      <c r="AD20" s="1">
-        <f t="shared" si="23"/>
-        <v>0.50890560203969</v>
-      </c>
-      <c r="AE20" s="1">
-        <f t="shared" si="24"/>
-        <v>0.320330524584597</v>
+        <v>0.3203305245845971</v>
       </c>
       <c r="AF20" s="8">
         <v>40.6666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>0.071811</v>
+        <v>7.1811E-2</v>
       </c>
       <c r="B21" s="4">
-        <v>0.383474</v>
+        <v>0.38347399999999998</v>
       </c>
       <c r="C21" s="4">
-        <v>0.278524</v>
+        <v>0.27852399999999999</v>
       </c>
       <c r="D21" s="4">
-        <v>0.611363</v>
+        <v>0.61136299999999999</v>
       </c>
       <c r="E21" s="4">
         <v>0.914632</v>
       </c>
       <c r="F21" s="4">
-        <v>0.952073</v>
+        <v>0.95207299999999995</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>0.547335155213283</v>
+        <v>0.54733515521328269</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>0.425742411161868</v>
+        <v>0.42574241116186845</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>0.58380056130919</v>
+        <v>0.58380056130918978</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="3"/>
-        <v>0.642569294935919</v>
+        <v>0.64256929493591863</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="4"/>
-        <v>1.15048234335082</v>
+        <v>1.1504823433508189</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="5"/>
-        <v>0.898473267533857</v>
+        <v>0.89847326753385703</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="6"/>
-        <v>1.26772338927421</v>
+        <v>1.2677233892742101</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="7"/>
-        <v>11.1525747352638</v>
+        <v>11.152574735263798</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="8"/>
-        <v>1.54425441911614</v>
+        <v>1.5442544191161443</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="9"/>
-        <v>0.673549</v>
+        <v>0.67354899999999995</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="10"/>
-        <v>1.02364807008794</v>
+        <v>1.0236480700879402</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="11"/>
-        <v>0.484359595195445</v>
+        <v>0.48435959519544486</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" si="12"/>
-        <v>0.607171348516011</v>
+        <v>0.60717134851601107</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="13"/>
-        <v>3.41827993278856</v>
+        <v>3.4182799327885567</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="14"/>
-        <v>44.61094</v>
+        <v>44.610939999999992</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="15"/>
-        <v>0.276865618882542</v>
+        <v>0.27686561888254235</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0304250701082482</v>
+        <v>-3.0425070108248232E-2</v>
       </c>
       <c r="X21" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37288046090381749</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="22"/>
+        <v>0.85972825046587309</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="23"/>
+        <v>0.97351194807183195</v>
+      </c>
+      <c r="AA21" s="1">
+        <f t="shared" si="24"/>
+        <v>1.8032711124329224</v>
+      </c>
+      <c r="AB21" s="1">
         <f t="shared" si="17"/>
-        <v>0.372880460903817</v>
-      </c>
-      <c r="Y21" s="1">
+        <v>0.15557554407923757</v>
+      </c>
+      <c r="AC21" s="1">
         <f t="shared" si="18"/>
-        <v>0.859728250465873</v>
-      </c>
-      <c r="Z21" s="1">
+        <v>-0.29311237391189482</v>
+      </c>
+      <c r="AD21" s="1">
         <f t="shared" si="19"/>
-        <v>0.973511948071832</v>
-      </c>
-      <c r="AA21" s="1">
+        <v>0.54589044504300266</v>
+      </c>
+      <c r="AE21" s="1">
         <f t="shared" si="20"/>
-        <v>1.80327111243292</v>
-      </c>
-      <c r="AB21" s="1">
-        <f t="shared" si="21"/>
-        <v>0.155575544079238</v>
-      </c>
-      <c r="AC21" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.293112373911895</v>
-      </c>
-      <c r="AD21" s="1">
-        <f t="shared" si="23"/>
-        <v>0.545890445043003</v>
-      </c>
-      <c r="AE21" s="1">
-        <f t="shared" si="24"/>
-        <v>0.324798408137423</v>
+        <v>0.32479840813742339</v>
       </c>
       <c r="AF21" s="8">
-        <v>42.5333333333333</v>
+        <v>42.533333333333303</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>0.067349</v>
+        <v>6.7349000000000006E-2</v>
       </c>
       <c r="B22" s="4">
-        <v>0.373545</v>
+        <v>0.37354500000000002</v>
       </c>
       <c r="C22" s="4">
-        <v>0.273028</v>
+        <v>0.27302799999999999</v>
       </c>
       <c r="D22" s="4">
-        <v>0.593148</v>
+        <v>0.59314800000000001</v>
       </c>
       <c r="E22" s="4">
-        <v>0.902238</v>
+        <v>0.90223799999999998</v>
       </c>
       <c r="F22" s="4">
-        <v>0.938999</v>
+        <v>0.93899900000000003</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>0.549468782461117</v>
+        <v>0.54946878246111686</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>0.430807652924397</v>
+        <v>0.43080765292439721</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="2"/>
-        <v>0.583493426213489</v>
+        <v>0.58349342621348854</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="3"/>
-        <v>0.641772035575995</v>
+        <v>0.6417720355759946</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="4"/>
-        <v>1.15769878325879</v>
+        <v>1.1576987832587902</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="5"/>
-        <v>0.864943353909489</v>
+        <v>0.86494335390948929</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="6"/>
-        <v>1.24109044089731</v>
+        <v>1.2410904408973111</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="7"/>
-        <v>9.60494875309425</v>
+        <v>9.6049487530942486</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="8"/>
-        <v>1.49890893998771</v>
+        <v>1.4989089399877087</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="9"/>
-        <v>0.665971</v>
+        <v>0.66597100000000009</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="10"/>
-        <v>1.0803792327877</v>
+        <v>1.0803792327877046</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="11"/>
-        <v>0.485392051322605</v>
+        <v>0.48539205132260527</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="12"/>
-        <v>0.604921709417353</v>
+        <v>0.60492170941735302</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="13"/>
-        <v>3.43920403768112</v>
+        <v>3.439204037681117</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="14"/>
-        <v>43.97894</v>
+        <v>43.978940000000001</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="15"/>
-        <v>0.285349253770749</v>
+        <v>0.28534925377074938</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0303301824134281</v>
+        <v>-3.0330182413428122E-2</v>
       </c>
       <c r="X22" s="1">
+        <f t="shared" si="21"/>
+        <v>0.37400031449230181</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="22"/>
+        <v>0.86615166920389375</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0137025136324647</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" si="24"/>
+        <v>1.837327021632845</v>
+      </c>
+      <c r="AB22" s="1">
         <f t="shared" si="17"/>
-        <v>0.374000314492302</v>
-      </c>
-      <c r="Y22" s="1">
+        <v>0.15428917031701059</v>
+      </c>
+      <c r="AC22" s="1">
         <f t="shared" si="18"/>
-        <v>0.866151669203894</v>
-      </c>
-      <c r="Z22" s="1">
+        <v>-0.28004273538747992</v>
+      </c>
+      <c r="AD22" s="1">
         <f t="shared" si="19"/>
-        <v>1.01370251363246</v>
-      </c>
-      <c r="AA22" s="1">
+        <v>0.54195985448802186</v>
+      </c>
+      <c r="AE22" s="1">
         <f t="shared" si="20"/>
-        <v>1.83732702163285</v>
-      </c>
-      <c r="AB22" s="1">
-        <f t="shared" si="21"/>
-        <v>0.154289170317011</v>
-      </c>
-      <c r="AC22" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.28004273538748</v>
-      </c>
-      <c r="AD22" s="1">
-        <f t="shared" si="23"/>
-        <v>0.541959854488022</v>
-      </c>
-      <c r="AE22" s="1">
-        <f t="shared" si="24"/>
-        <v>0.324673804018605</v>
+        <v>0.32467380401860474</v>
       </c>
       <c r="AF22" s="8">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>0.017148</v>
+        <v>1.7148E-2</v>
       </c>
       <c r="B23" s="4">
-        <v>0.039806</v>
+        <v>3.9806000000000001E-2</v>
       </c>
       <c r="C23" s="4">
-        <v>0.03629</v>
+        <v>3.6290000000000003E-2</v>
       </c>
       <c r="D23" s="4">
-        <v>0.07785</v>
+        <v>7.7850000000000003E-2</v>
       </c>
       <c r="E23" s="4">
-        <v>0.136802</v>
+        <v>0.13680200000000001</v>
       </c>
       <c r="F23" s="4">
         <v>0.149899</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>0.61018105258635</v>
+        <v>0.61018105258635047</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>0.580337893044464</v>
+        <v>0.5803378930444637</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="2"/>
-        <v>0.248347758416413</v>
+        <v>0.24834775841641299</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="3"/>
-        <v>0.229606829453636</v>
+        <v>0.22960682945363561</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="4"/>
-        <v>1.38210883557622</v>
+        <v>1.3821088355762234</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="5"/>
-        <v>0.10835745715073</v>
+        <v>0.10835745715073022</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="6"/>
-        <v>0.141953492233141</v>
+        <v>0.14195349223314069</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="7"/>
-        <v>0.173655406986578</v>
+        <v>0.17365540698657783</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="8"/>
-        <v>0.156113243781986</v>
+        <v>0.15611324378198574</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="9"/>
@@ -3845,90 +3260,90 @@
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="10"/>
-        <v>1.73361405197305</v>
+        <v>1.733614051973051</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="11"/>
-        <v>0.328170450245386</v>
+        <v>0.32817045024538621</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" si="12"/>
-        <v>0.263290826280147</v>
+        <v>0.26329082628014727</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" si="13"/>
-        <v>4.13058693855056</v>
+        <v>4.1305869385505645</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="14"/>
-        <v>6.95718</v>
+        <v>6.9571799999999993</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" si="15"/>
-        <v>0.386967006643787</v>
+        <v>0.38696700664378669</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0703425014367121</v>
+        <v>-7.034250143671214E-2</v>
       </c>
       <c r="X23" s="1">
+        <f t="shared" si="21"/>
+        <v>0.19672303645246147</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="22"/>
+        <v>0.79469251168832733</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="23"/>
+        <v>5.3087138899679225</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" si="24"/>
+        <v>3.4331171748472733</v>
+      </c>
+      <c r="AB23" s="1">
         <f t="shared" si="17"/>
-        <v>0.196723036452461</v>
-      </c>
-      <c r="Y23" s="1">
+        <v>3.8925804135641957E-2</v>
+      </c>
+      <c r="AC23" s="1">
         <f t="shared" si="18"/>
-        <v>0.794692511688327</v>
-      </c>
-      <c r="Z23" s="1">
+        <v>-0.23361831211335082</v>
+      </c>
+      <c r="AD23" s="1">
         <f t="shared" si="19"/>
-        <v>5.30871388996792</v>
-      </c>
-      <c r="AA23" s="1">
+        <v>0.22922990503047147</v>
+      </c>
+      <c r="AE23" s="1">
         <f t="shared" si="20"/>
-        <v>3.43311717484727</v>
-      </c>
-      <c r="AB23" s="1">
-        <f t="shared" si="21"/>
-        <v>0.038925804135642</v>
-      </c>
-      <c r="AC23" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.233618312113351</v>
-      </c>
-      <c r="AD23" s="1">
-        <f t="shared" si="23"/>
-        <v>0.229229905030471</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" si="24"/>
-        <v>0.460071786530042</v>
+        <v>0.46007178653004166</v>
       </c>
       <c r="AF23" s="8">
         <v>44.6666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>0.062133</v>
+        <v>6.2133000000000001E-2</v>
       </c>
       <c r="B24" s="4">
         <v>0.399366</v>
       </c>
       <c r="C24" s="4">
-        <v>0.30194</v>
+        <v>0.30193999999999999</v>
       </c>
       <c r="D24" s="4">
-        <v>0.606504</v>
+        <v>0.60650400000000004</v>
       </c>
       <c r="E24" s="4">
-        <v>0.889558</v>
+        <v>0.88955799999999996</v>
       </c>
       <c r="F24" s="4">
-        <v>0.926255</v>
+        <v>0.92625500000000005</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>0.50831911870672</v>
+        <v>0.50831911870672009</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
@@ -3936,420 +3351,420 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>0.541878954631856</v>
+        <v>0.54187895463185587</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="3"/>
-        <v>0.588774010142174</v>
+        <v>0.5887740101421739</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="4"/>
-        <v>1.02520279538305</v>
+        <v>1.0252027953830456</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="5"/>
-        <v>0.83047677475525</v>
+        <v>0.8304767747552495</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="6"/>
-        <v>1.27432885425322</v>
+        <v>1.2743288542532161</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="7"/>
-        <v>8.3868003114757</v>
+        <v>8.3868003114757048</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="8"/>
-        <v>1.54212881721647</v>
+        <v>1.5421288172164747</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="9"/>
-        <v>0.624315</v>
+        <v>0.62431500000000006</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="10"/>
-        <v>1.04986472465557</v>
+        <v>1.049864724655573</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="11"/>
-        <v>0.449731485850331</v>
+        <v>0.4497314858503309</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" si="12"/>
-        <v>0.563339374263317</v>
+        <v>0.56333937426331737</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="13"/>
-        <v>3.06767900907465</v>
+        <v>3.0676790090746509</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="14"/>
-        <v>41.35594</v>
+        <v>41.355940000000004</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="15"/>
-        <v>0.260342209502563</v>
+        <v>0.2603422095025627</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0298788058899443</v>
+        <v>-2.9878805889944262E-2</v>
       </c>
       <c r="X24" s="1">
+        <f t="shared" si="21"/>
+        <v>0.3738021422336506</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="22"/>
+        <v>0.87427407050672412</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0320438348987717</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7535131984945325</v>
+      </c>
+      <c r="AB24" s="1">
         <f t="shared" si="17"/>
-        <v>0.373802142233651</v>
-      </c>
-      <c r="Y24" s="1">
+        <v>0.14640673847584715</v>
+      </c>
+      <c r="AC24" s="1">
         <f t="shared" si="18"/>
-        <v>0.874274070506724</v>
-      </c>
-      <c r="Z24" s="1">
+        <v>-0.34639648861810945</v>
+      </c>
+      <c r="AD24" s="1">
         <f t="shared" si="19"/>
-        <v>1.03204383489877</v>
-      </c>
-      <c r="AA24" s="1">
+        <v>0.47702823820122731</v>
+      </c>
+      <c r="AE24" s="1">
         <f t="shared" si="20"/>
-        <v>1.75351319849453</v>
-      </c>
-      <c r="AB24" s="1">
-        <f t="shared" si="21"/>
-        <v>0.146406738475847</v>
-      </c>
-      <c r="AC24" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.346396488618109</v>
-      </c>
-      <c r="AD24" s="1">
-        <f t="shared" si="23"/>
-        <v>0.477028238201227</v>
-      </c>
-      <c r="AE24" s="1">
-        <f t="shared" si="24"/>
-        <v>0.261926073670199</v>
+        <v>0.26192607367019938</v>
       </c>
       <c r="AF24" s="8">
-        <v>43.4666666666667</v>
+        <v>43.466666666666697</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>0.071595</v>
+        <v>7.1595000000000006E-2</v>
       </c>
       <c r="B25" s="4">
-        <v>0.379306</v>
+        <v>0.37930599999999998</v>
       </c>
       <c r="C25" s="4">
-        <v>0.286428</v>
+        <v>0.28642800000000002</v>
       </c>
       <c r="D25" s="4">
-        <v>0.583761</v>
+        <v>0.58376099999999997</v>
       </c>
       <c r="E25" s="4">
-        <v>0.838735</v>
+        <v>0.83873500000000001</v>
       </c>
       <c r="F25" s="4">
-        <v>0.86668</v>
+        <v>0.86668000000000001</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>0.503206984948504</v>
+        <v>0.50320698494850435</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v>0.391155277828162</v>
+        <v>0.39115527782816178</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="2"/>
-        <v>0.52651006467817</v>
+        <v>0.52651006467816985</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="3"/>
-        <v>0.567959716021317</v>
+        <v>0.56795971602131656</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="4"/>
-        <v>1.0096571338832</v>
+        <v>1.0096571338832017</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="5"/>
-        <v>0.808660181689639</v>
+        <v>0.80866018168963916</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="6"/>
-        <v>1.17540346314037</v>
+        <v>1.1754034631403698</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="7"/>
-        <v>5.37425975878213</v>
+        <v>5.374259758782129</v>
       </c>
       <c r="O25" s="1">
         <f t="shared" si="8"/>
-        <v>1.39630800362175</v>
+        <v>1.3963080036217523</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" si="9"/>
-        <v>0.580252</v>
+        <v>0.58025199999999999</v>
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="10"/>
-        <v>0.951522367177542</v>
+        <v>0.95152236717754191</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" si="11"/>
-        <v>0.441892060668277</v>
+        <v>0.44189206066827713</v>
       </c>
       <c r="S25" s="1">
         <f t="shared" si="12"/>
-        <v>0.540358084449876</v>
+        <v>0.54035808444987621</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" si="13"/>
-        <v>3.02582149789825</v>
+        <v>3.0258214978982498</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" si="14"/>
-        <v>38.53024</v>
+        <v>38.530239999999999</v>
       </c>
       <c r="V25" s="1">
         <f t="shared" si="15"/>
-        <v>0.245353427432643</v>
+        <v>0.24535342743264293</v>
       </c>
       <c r="W25" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0242345036197824</v>
+        <v>-2.4234503619782358E-2</v>
       </c>
       <c r="X25" s="1">
+        <f t="shared" si="21"/>
+        <v>0.35874659132124631</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84739015746982504</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="23"/>
+        <v>1.2183563299805484</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="24"/>
+        <v>1.725419969003317</v>
+      </c>
+      <c r="AB25" s="1">
         <f t="shared" si="17"/>
-        <v>0.358746591321246</v>
-      </c>
-      <c r="Y25" s="1">
+        <v>0.14145409618237745</v>
+      </c>
+      <c r="AC25" s="1">
         <f t="shared" si="18"/>
-        <v>0.847390157469825</v>
-      </c>
-      <c r="Z25" s="1">
+        <v>-0.31535474684680653</v>
+      </c>
+      <c r="AD25" s="1">
         <f t="shared" si="19"/>
-        <v>1.21835632998055</v>
-      </c>
-      <c r="AA25" s="1">
+        <v>0.47588390260689167</v>
+      </c>
+      <c r="AE25" s="1">
         <f t="shared" si="20"/>
-        <v>1.72541996900332</v>
-      </c>
-      <c r="AB25" s="1">
-        <f t="shared" si="21"/>
-        <v>0.141454096182377</v>
-      </c>
-      <c r="AC25" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.315354746846807</v>
-      </c>
-      <c r="AD25" s="1">
-        <f t="shared" si="23"/>
-        <v>0.475883902606892</v>
-      </c>
-      <c r="AE25" s="1">
-        <f t="shared" si="24"/>
-        <v>0.267130673033413</v>
+        <v>0.26713067303341292</v>
       </c>
       <c r="AF25" s="8">
         <v>37.6666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>0.076792</v>
+        <v>7.6791999999999999E-2</v>
       </c>
       <c r="B26" s="4">
-        <v>0.337013</v>
+        <v>0.33701300000000001</v>
       </c>
       <c r="C26" s="4">
         <v>0.249503</v>
       </c>
       <c r="D26" s="4">
-        <v>0.539863</v>
+        <v>0.53986299999999998</v>
       </c>
       <c r="E26" s="4">
-        <v>0.780939</v>
+        <v>0.78093900000000005</v>
       </c>
       <c r="F26" s="4">
-        <v>0.809329</v>
+        <v>0.80932899999999997</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>0.528720325792949</v>
+        <v>0.52872032579294914</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v>0.412020147565037</v>
+        <v>0.4120201475650373</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="2"/>
-        <v>0.538697563303807</v>
+        <v>0.53869756330380691</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="3"/>
-        <v>0.581181828502889</v>
+        <v>0.58118182850288946</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="4"/>
-        <v>1.08918499459317</v>
+        <v>1.0891849945931675</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="5"/>
-        <v>0.783296518799373</v>
+        <v>0.78329651879937301</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="6"/>
-        <v>1.04056245394718</v>
+        <v>1.0405624539471845</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="7"/>
-        <v>3.69453713805744</v>
+        <v>3.6945371380574366</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="8"/>
-        <v>1.22073132655693</v>
+        <v>1.2207313265569308</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="9"/>
-        <v>0.559826</v>
+        <v>0.55982599999999993</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="10"/>
-        <v>0.928041052486569</v>
+        <v>0.92804105248656854</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="11"/>
-        <v>0.459313506701498</v>
+        <v>0.45931350670149779</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" si="12"/>
-        <v>0.544050903048018</v>
+        <v>0.54405090304801762</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" si="13"/>
-        <v>3.24376460403282</v>
+        <v>3.2437646040328172</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="14"/>
-        <v>37.08996</v>
+        <v>37.089959999999998</v>
       </c>
       <c r="V26" s="1">
         <f t="shared" si="15"/>
-        <v>0.254493630717621</v>
+        <v>0.25449363071762093</v>
       </c>
       <c r="W26" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0268125632772715</v>
+        <v>-2.6812563277271481E-2</v>
       </c>
       <c r="X26" s="1">
+        <f t="shared" si="21"/>
+        <v>0.34761941416805209</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="22"/>
+        <v>0.82667829788482616</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="23"/>
+        <v>1.4364231070563713</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7779009696152905</v>
+      </c>
+      <c r="AB26" s="1">
         <f t="shared" si="17"/>
-        <v>0.347619414168052</v>
-      </c>
-      <c r="Y26" s="1">
+        <v>0.14078024392212896</v>
+      </c>
+      <c r="AC26" s="1">
         <f t="shared" si="18"/>
-        <v>0.826678297884826</v>
-      </c>
-      <c r="Z26" s="1">
+        <v>-0.23299448129826539</v>
+      </c>
+      <c r="AD26" s="1">
         <f t="shared" si="19"/>
-        <v>1.43642310705637</v>
-      </c>
-      <c r="AA26" s="1">
+        <v>0.51258475384805269</v>
+      </c>
+      <c r="AE26" s="1">
         <f t="shared" si="20"/>
-        <v>1.77790096961529</v>
-      </c>
-      <c r="AB26" s="1">
-        <f t="shared" si="21"/>
-        <v>0.140780243922129</v>
-      </c>
-      <c r="AC26" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.232994481298265</v>
-      </c>
-      <c r="AD26" s="1">
-        <f t="shared" si="23"/>
-        <v>0.512584753848053</v>
-      </c>
-      <c r="AE26" s="1">
-        <f t="shared" si="24"/>
-        <v>0.314333320070838</v>
+        <v>0.31433332007083797</v>
       </c>
       <c r="AF26" s="8">
         <v>47.9</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>0.069557</v>
+        <v>6.9556999999999994E-2</v>
       </c>
       <c r="B27" s="4">
-        <v>0.376698</v>
+        <v>0.37669799999999998</v>
       </c>
       <c r="C27" s="4">
-        <v>0.286841</v>
+        <v>0.28684100000000001</v>
       </c>
       <c r="D27" s="4">
-        <v>0.571962</v>
+        <v>0.57196199999999997</v>
       </c>
       <c r="E27" s="4">
-        <v>0.825174</v>
+        <v>0.82517399999999996</v>
       </c>
       <c r="F27" s="4">
         <v>0.857958</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>0.498879716002547</v>
+        <v>0.49887971600254721</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>0.389792784386906</v>
+        <v>0.38979278438690618</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="2"/>
-        <v>0.520839020451739</v>
+        <v>0.52083902045173902</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="3"/>
-        <v>0.560715415050187</v>
+        <v>0.56071541505018663</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="4"/>
-        <v>0.996643532916218</v>
+        <v>0.99664353291621766</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="5"/>
-        <v>0.777491574389296</v>
+        <v>0.77749157438929573</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="6"/>
-        <v>1.15706876026244</v>
+        <v>1.1570687602624379</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="7"/>
-        <v>4.90749659661606</v>
+        <v>4.9074965966160633</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="8"/>
-        <v>1.37647240021691</v>
+        <v>1.3764724002169093</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="9"/>
-        <v>0.571117</v>
+        <v>0.57111699999999999</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="10"/>
-        <v>1.00306887251378</v>
+        <v>1.0030688725137751</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="11"/>
-        <v>0.437704964519439</v>
+        <v>0.43770496451943947</v>
       </c>
       <c r="S27" s="1">
         <f t="shared" si="12"/>
-        <v>0.533777750345803</v>
+        <v>0.53377775034580333</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" si="13"/>
-        <v>2.99105776370881</v>
+        <v>2.991057763708814</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" si="14"/>
@@ -4357,51 +3772,51 @@
       </c>
       <c r="V27" s="1">
         <f t="shared" si="15"/>
-        <v>0.249822021158299</v>
+        <v>0.24982202115829946</v>
       </c>
       <c r="W27" s="1">
         <f t="shared" si="16"/>
-        <v>-0.028637341576993</v>
+        <v>-2.8637341576993026E-2</v>
       </c>
       <c r="X27" s="1">
+        <f t="shared" si="21"/>
+        <v>0.35772224394797592</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" si="22"/>
+        <v>0.85001428548325364</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="23"/>
+        <v>1.2448756398272842</v>
+      </c>
+      <c r="AA27" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7342856364141692</v>
+      </c>
+      <c r="AB27" s="1">
         <f t="shared" si="17"/>
-        <v>0.357722243947976</v>
-      </c>
-      <c r="Y27" s="1">
+        <v>0.13960071700292703</v>
+      </c>
+      <c r="AC27" s="1">
         <f t="shared" si="18"/>
-        <v>0.850014285483254</v>
-      </c>
-      <c r="Z27" s="1">
+        <v>-0.31753109845931271</v>
+      </c>
+      <c r="AD27" s="1">
         <f t="shared" si="19"/>
-        <v>1.24487563982728</v>
-      </c>
-      <c r="AA27" s="1">
+        <v>0.46700687675980956</v>
+      </c>
+      <c r="AE27" s="1">
         <f t="shared" si="20"/>
-        <v>1.73428563641417</v>
-      </c>
-      <c r="AB27" s="1">
-        <f t="shared" si="21"/>
-        <v>0.139600717002927</v>
-      </c>
-      <c r="AC27" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.317531098459313</v>
-      </c>
-      <c r="AD27" s="1">
-        <f t="shared" si="23"/>
-        <v>0.46700687675981</v>
-      </c>
-      <c r="AE27" s="1">
-        <f t="shared" si="24"/>
-        <v>0.259773449929263</v>
+        <v>0.25977344992926271</v>
       </c>
       <c r="AF27" s="8">
         <v>44.2</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>0.065614</v>
+        <v>6.5614000000000006E-2</v>
       </c>
       <c r="B28" s="4">
         <v>0.359016</v>
@@ -4410,121 +3825,121 @@
         <v>0.267017</v>
       </c>
       <c r="D28" s="4">
-        <v>0.559713</v>
+        <v>0.55971300000000002</v>
       </c>
       <c r="E28" s="4">
-        <v>0.82115</v>
+        <v>0.82115000000000005</v>
       </c>
       <c r="F28" s="4">
-        <v>0.849586</v>
+        <v>0.84958599999999995</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>0.521733328676351</v>
+        <v>0.52173332867635125</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="1"/>
-        <v>0.405898716037207</v>
+        <v>0.40589871603720662</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="2"/>
-        <v>0.540549225753014</v>
+        <v>0.54054922575301412</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="3"/>
-        <v>0.584808395091155</v>
+        <v>0.58480839509115456</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="4"/>
-        <v>1.06691180312897</v>
+        <v>1.0669118031289686</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="5"/>
-        <v>0.793948997643596</v>
+        <v>0.79394899764359572</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="6"/>
-        <v>1.12028519078887</v>
+        <v>1.1202851907888725</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="7"/>
-        <v>4.75027117696394</v>
+        <v>4.7502711769639374</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="8"/>
-        <v>1.32544026059933</v>
+        <v>1.3254402605993285</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="9"/>
-        <v>0.582569</v>
+        <v>0.58256899999999989</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="10"/>
-        <v>0.990355180801924</v>
+        <v>0.99035518080192397</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="11"/>
-        <v>0.456343123116584</v>
+        <v>0.45634312311658354</v>
       </c>
       <c r="S28" s="1">
         <f t="shared" si="12"/>
-        <v>0.551312673129916</v>
+        <v>0.55131267312991572</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" si="13"/>
-        <v>3.18176745300861</v>
+        <v>3.1817674530086095</v>
       </c>
       <c r="U28" s="1">
         <f t="shared" si="14"/>
-        <v>38.6341</v>
+        <v>38.634099999999997</v>
       </c>
       <c r="V28" s="1">
         <f t="shared" si="15"/>
-        <v>0.259602562414753</v>
+        <v>0.25960256241475255</v>
       </c>
       <c r="W28" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0254665265989791</v>
+        <v>-2.546652659897914E-2</v>
       </c>
       <c r="X28" s="1">
+        <f t="shared" si="21"/>
+        <v>0.366816952724137</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="22"/>
+        <v>0.85661276223776206</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="23"/>
+        <v>1.2878077801707413</v>
+      </c>
+      <c r="AA28" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7600242499115526</v>
+      </c>
+      <c r="AB28" s="1">
         <f t="shared" si="17"/>
-        <v>0.366816952724137</v>
-      </c>
-      <c r="Y28" s="1">
+        <v>0.14319257447063458</v>
+      </c>
+      <c r="AC28" s="1">
         <f t="shared" si="18"/>
-        <v>0.856612762237762</v>
-      </c>
-      <c r="Z28" s="1">
+        <v>-0.2705922264874443</v>
+      </c>
+      <c r="AD28" s="1">
         <f t="shared" si="19"/>
-        <v>1.28780778017074</v>
-      </c>
-      <c r="AA28" s="1">
+        <v>0.49210395518557848</v>
+      </c>
+      <c r="AE28" s="1">
         <f t="shared" si="20"/>
-        <v>1.76002424991155</v>
-      </c>
-      <c r="AB28" s="1">
-        <f t="shared" si="21"/>
-        <v>0.143192574470635</v>
-      </c>
-      <c r="AC28" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.270592226487444</v>
-      </c>
-      <c r="AD28" s="1">
-        <f t="shared" si="23"/>
-        <v>0.492103955185578</v>
-      </c>
-      <c r="AE28" s="1">
-        <f t="shared" si="24"/>
-        <v>0.289198986954536</v>
+        <v>0.28919898695453583</v>
       </c>
       <c r="AF28" s="8">
-        <v>46.2333333333333</v>
+        <v>46.233333333333299</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>0.076754</v>
+        <v>7.6754000000000003E-2</v>
       </c>
       <c r="B29" s="4">
         <v>0.436413</v>
@@ -4533,295 +3948,295 @@
         <v>0.341333</v>
       </c>
       <c r="D29" s="4">
-        <v>0.645854</v>
+        <v>0.64585400000000004</v>
       </c>
       <c r="E29" s="4">
-        <v>0.88139</v>
+        <v>0.88139000000000001</v>
       </c>
       <c r="F29" s="4">
-        <v>0.908708</v>
+        <v>0.90870799999999996</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>0.453885112568308</v>
+        <v>0.45388511256830777</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>0.351117111397413</v>
+        <v>0.35111711139741331</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="2"/>
-        <v>0.486310035022037</v>
+        <v>0.48631003502203662</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="3"/>
-        <v>0.519972783531639</v>
+        <v>0.51997278353163923</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="4"/>
-        <v>0.868598205990759</v>
+        <v>0.86859820599075932</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="5"/>
-        <v>0.8343041486062</v>
+        <v>0.83430414860619995</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="6"/>
-        <v>1.33814203535322</v>
+        <v>1.338142035353221</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="7"/>
-        <v>7.66131017620774</v>
+        <v>7.6613101762077394</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="8"/>
-        <v>1.61236508294194</v>
+        <v>1.6123650829419414</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="9"/>
-        <v>0.567375</v>
+        <v>0.56737499999999996</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="10"/>
-        <v>0.863171997990286</v>
+        <v>0.86317199799028599</v>
       </c>
       <c r="R29" s="1">
         <f t="shared" si="11"/>
-        <v>0.402381916554199</v>
+        <v>0.40238191655419947</v>
       </c>
       <c r="S29" s="1">
         <f t="shared" si="12"/>
-        <v>0.507467305098017</v>
+        <v>0.50746730509801674</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" si="13"/>
-        <v>2.66223306858698</v>
+        <v>2.6622330685869811</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" si="14"/>
-        <v>37.8457</v>
+        <v>37.845699999999994</v>
       </c>
       <c r="V29" s="1">
         <f t="shared" si="15"/>
-        <v>0.210276302937264</v>
+        <v>0.2102763029372636</v>
       </c>
       <c r="W29" s="1">
         <f t="shared" si="16"/>
-        <v>-0.021853683199191</v>
+        <v>-2.185368319919103E-2</v>
       </c>
       <c r="X29" s="1">
+        <f t="shared" si="21"/>
+        <v>0.35226153892632578</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84422737761577815</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0565607194558779</v>
+      </c>
+      <c r="AA29" s="1">
+        <f t="shared" si="24"/>
+        <v>1.6285731533475287</v>
+      </c>
+      <c r="AB29" s="1">
         <f t="shared" si="17"/>
-        <v>0.352261538926326</v>
-      </c>
-      <c r="Y29" s="1">
+        <v>0.1358596466768057</v>
+      </c>
+      <c r="AC29" s="1">
         <f t="shared" si="18"/>
-        <v>0.844227377615778</v>
-      </c>
-      <c r="Z29" s="1">
+        <v>-0.43488439449939142</v>
+      </c>
+      <c r="AD29" s="1">
         <f t="shared" si="19"/>
-        <v>1.05656071945588</v>
-      </c>
-      <c r="AA29" s="1">
+        <v>0.4195256149641044</v>
+      </c>
+      <c r="AE29" s="1">
         <f t="shared" si="20"/>
-        <v>1.62857315334753</v>
-      </c>
-      <c r="AB29" s="1">
-        <f t="shared" si="21"/>
-        <v>0.135859646676806</v>
-      </c>
-      <c r="AC29" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.434884394499391</v>
-      </c>
-      <c r="AD29" s="1">
-        <f t="shared" si="23"/>
-        <v>0.419525614964104</v>
-      </c>
-      <c r="AE29" s="1">
-        <f t="shared" si="24"/>
-        <v>0.199915490354016</v>
+        <v>0.19991549035401618</v>
       </c>
       <c r="AF29" s="8">
-        <v>48.0333333333333</v>
+        <v>48.033333333333303</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
-        <v>0.072663</v>
+        <v>7.2663000000000005E-2</v>
       </c>
       <c r="B30" s="4">
-        <v>0.405038</v>
+        <v>0.40503800000000001</v>
       </c>
       <c r="C30" s="4">
         <v>0.308894</v>
       </c>
       <c r="D30" s="4">
-        <v>0.625065</v>
+        <v>0.62506499999999998</v>
       </c>
       <c r="E30" s="4">
-        <v>0.899968</v>
+        <v>0.89996799999999999</v>
       </c>
       <c r="F30" s="4">
-        <v>0.936991</v>
+        <v>0.93699100000000002</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>0.504137219727342</v>
+        <v>0.50413721972734249</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="1"/>
-        <v>0.396379660946224</v>
+        <v>0.39637966094622396</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="2"/>
-        <v>0.539637776829516</v>
+        <v>0.5396377768295163</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="3"/>
-        <v>0.586275265028302</v>
+        <v>0.58627526502830163</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="4"/>
-        <v>1.0124719594867</v>
+        <v>1.0124719594866982</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="5"/>
-        <v>0.859465510081128</v>
+        <v>0.85946551008112815</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="6"/>
-        <v>1.30221413213024</v>
+        <v>1.3022141321302376</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="7"/>
-        <v>9.36691258797185</v>
+        <v>9.3669125879718482</v>
       </c>
       <c r="O30" s="1">
         <f t="shared" si="8"/>
-        <v>1.57487537019171</v>
+        <v>1.5748753701917098</v>
       </c>
       <c r="P30" s="1">
         <f t="shared" si="9"/>
-        <v>0.628097</v>
+        <v>0.62809700000000002</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="10"/>
-        <v>0.986573721182525</v>
+        <v>0.98657372118252484</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" si="11"/>
-        <v>0.446762715300327</v>
+        <v>0.44676271530032691</v>
       </c>
       <c r="S30" s="1">
         <f t="shared" si="12"/>
-        <v>0.56271402621499</v>
+        <v>0.56271402621499012</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" si="13"/>
-        <v>3.03337390820152</v>
+        <v>3.033373908201519</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" si="14"/>
-        <v>41.53158</v>
+        <v>41.531580000000005</v>
       </c>
       <c r="V30" s="1">
         <f t="shared" si="15"/>
-        <v>0.250365001585219</v>
+        <v>0.25036500158521857</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0297162258153843</v>
+        <v>-2.9716225815384269E-2</v>
       </c>
       <c r="X30" s="1">
+        <f t="shared" si="21"/>
+        <v>0.35960652314932534</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="22"/>
+        <v>0.8560635623688907</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="23"/>
+        <v>0.99776248993536298</v>
+      </c>
+      <c r="AA30" s="1">
+        <f t="shared" si="24"/>
+        <v>1.764222482173214</v>
+      </c>
+      <c r="AB30" s="1">
         <f t="shared" si="17"/>
-        <v>0.359606523149325</v>
-      </c>
-      <c r="Y30" s="1">
+        <v>0.14597412726830941</v>
+      </c>
+      <c r="AC30" s="1">
         <f t="shared" si="18"/>
-        <v>0.856063562368891</v>
-      </c>
-      <c r="Z30" s="1">
+        <v>-0.36161861198476819</v>
+      </c>
+      <c r="AD30" s="1">
         <f t="shared" si="19"/>
-        <v>0.997762489935363</v>
-      </c>
-      <c r="AA30" s="1">
+        <v>0.48383896197135468</v>
+      </c>
+      <c r="AE30" s="1">
         <f t="shared" si="20"/>
-        <v>1.76422248217321</v>
-      </c>
-      <c r="AB30" s="1">
-        <f t="shared" si="21"/>
-        <v>0.145974127268309</v>
-      </c>
-      <c r="AC30" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.361618611984768</v>
-      </c>
-      <c r="AD30" s="1">
-        <f t="shared" si="23"/>
-        <v>0.483838961971355</v>
-      </c>
-      <c r="AE30" s="1">
-        <f t="shared" si="24"/>
-        <v>0.264396309060829</v>
+        <v>0.26439630906082928</v>
       </c>
       <c r="AF30" s="8">
         <v>46.8333333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>0.072456</v>
+        <v>7.2456000000000007E-2</v>
       </c>
       <c r="B31" s="4">
-        <v>0.369272</v>
+        <v>0.36927199999999999</v>
       </c>
       <c r="C31" s="4">
-        <v>0.27871</v>
+        <v>0.27871000000000001</v>
       </c>
       <c r="D31" s="4">
         <v>0.572878</v>
       </c>
       <c r="E31" s="4">
-        <v>0.824228</v>
+        <v>0.82422799999999996</v>
       </c>
       <c r="F31" s="4">
-        <v>0.85392</v>
+        <v>0.85392000000000001</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>0.507853403141361</v>
+        <v>0.50785340314136129</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="1"/>
-        <v>0.396215802588637</v>
+        <v>0.39621580258863692</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="2"/>
-        <v>0.528481652303339</v>
+        <v>0.52848165230333877</v>
       </c>
       <c r="J31" s="6">
         <f t="shared" si="3"/>
-        <v>0.570006072559957</v>
+        <v>0.57000607255995672</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="4"/>
-        <v>1.02377877539599</v>
+        <v>1.0237787753959935</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="5"/>
-        <v>0.798803093632808</v>
+        <v>0.79880309363280821</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="6"/>
-        <v>1.14271374897753</v>
+        <v>1.1427137489775263</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="7"/>
-        <v>4.85811164463054</v>
+        <v>4.8581116446305428</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="8"/>
-        <v>1.35386410623914</v>
+        <v>1.3538641062391397</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="9"/>
@@ -4829,630 +4244,630 @@
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="10"/>
-        <v>0.955379239074271</v>
+        <v>0.95537923907427058</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="11"/>
-        <v>0.444991993068395</v>
+        <v>0.44499199306839549</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="12"/>
-        <v>0.5404834465744</v>
+        <v>0.54048344657440006</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="13"/>
-        <v>3.06382978723404</v>
+        <v>3.0638297872340425</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="14"/>
-        <v>38.13508</v>
+        <v>38.135080000000002</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="15"/>
-        <v>0.248132223232653</v>
+        <v>0.24813222323265322</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0262150923072849</v>
+        <v>-2.621509230728486E-2</v>
       </c>
       <c r="X31" s="1">
+        <f t="shared" si="21"/>
+        <v>0.35548723972433027</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84357107697090605</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="23"/>
+        <v>1.2641716248394388</v>
+      </c>
+      <c r="AA31" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7453276927603503</v>
+      </c>
+      <c r="AB31" s="1">
         <f t="shared" si="17"/>
-        <v>0.35548723972433</v>
-      </c>
-      <c r="Y31" s="1">
+        <v>0.14095492161052417</v>
+      </c>
+      <c r="AC31" s="1">
         <f t="shared" si="18"/>
-        <v>0.843571076970906</v>
-      </c>
-      <c r="Z31" s="1">
+        <v>-0.29856826489025323</v>
+      </c>
+      <c r="AD31" s="1">
         <f t="shared" si="19"/>
-        <v>1.26417162483944</v>
-      </c>
-      <c r="AA31" s="1">
+        <v>0.48211220480360473</v>
+      </c>
+      <c r="AE31" s="1">
         <f t="shared" si="20"/>
-        <v>1.74532769276035</v>
-      </c>
-      <c r="AB31" s="1">
-        <f t="shared" si="21"/>
-        <v>0.140954921610524</v>
-      </c>
-      <c r="AC31" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.298568264890253</v>
-      </c>
-      <c r="AD31" s="1">
-        <f t="shared" si="23"/>
-        <v>0.482112204803605</v>
-      </c>
-      <c r="AE31" s="1">
-        <f t="shared" si="24"/>
-        <v>0.275569802910484</v>
+        <v>0.27556980291048366</v>
       </c>
       <c r="AF31" s="8">
         <v>47.6666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>0.072217</v>
+        <v>7.2217000000000003E-2</v>
       </c>
       <c r="B32" s="4">
-        <v>0.356241</v>
+        <v>0.35624099999999997</v>
       </c>
       <c r="C32" s="4">
-        <v>0.265396</v>
+        <v>0.26539600000000002</v>
       </c>
       <c r="D32" s="4">
-        <v>0.554525</v>
+        <v>0.55452500000000005</v>
       </c>
       <c r="E32" s="4">
-        <v>0.807606</v>
+        <v>0.80760600000000005</v>
       </c>
       <c r="F32" s="4">
-        <v>0.838583</v>
+        <v>0.83858299999999997</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>0.51920099929437</v>
+        <v>0.51920099929437047</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="1"/>
-        <v>0.403692928833033</v>
+        <v>0.4036929288330332</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="2"/>
-        <v>0.536029773457134</v>
+        <v>0.53602977345713365</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" si="3"/>
-        <v>0.578852016296771</v>
+        <v>0.57885201629677052</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="4"/>
-        <v>1.0589336258969</v>
+        <v>1.0589336258969004</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="5"/>
-        <v>0.784527096233553</v>
+        <v>0.78452709623355299</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="6"/>
-        <v>1.09937599032948</v>
+        <v>1.0993759903294837</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="7"/>
-        <v>4.3586754264686</v>
+        <v>4.3586754264686016</v>
       </c>
       <c r="O32" s="1">
         <f t="shared" si="8"/>
-        <v>1.30263499228749</v>
+        <v>1.3026349922874865</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="9"/>
-        <v>0.573187</v>
+        <v>0.57318699999999989</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="10"/>
-        <v>0.982461115972455</v>
+        <v>0.98246111597245489</v>
       </c>
       <c r="R32" s="1">
         <f t="shared" si="11"/>
-        <v>0.453478261901503</v>
+        <v>0.45347826190150303</v>
       </c>
       <c r="S32" s="1">
         <f t="shared" si="12"/>
-        <v>0.545526592553051</v>
+        <v>0.5455265925530508</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" si="13"/>
-        <v>3.1597424226439</v>
+        <v>3.1597424226438977</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="14"/>
-        <v>38.02502</v>
+        <v>38.025019999999998</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="15"/>
-        <v>0.25730380740938</v>
+        <v>0.25730380740937997</v>
       </c>
       <c r="W32" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0280594105503818</v>
+        <v>-2.8059410550381775E-2</v>
       </c>
       <c r="X32" s="1">
+        <f t="shared" si="21"/>
+        <v>0.35698579652317164</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84142072902942477</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="23"/>
+        <v>1.3244891179540978</v>
+      </c>
+      <c r="AA32" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7536891883661165</v>
+      </c>
+      <c r="AB32" s="1">
         <f t="shared" si="17"/>
-        <v>0.356985796523172</v>
-      </c>
-      <c r="Y32" s="1">
+        <v>0.1418957270865171</v>
+      </c>
+      <c r="AC32" s="1">
         <f t="shared" si="18"/>
-        <v>0.841420729029425</v>
-      </c>
-      <c r="Z32" s="1">
+        <v>-0.2681907213297956</v>
+      </c>
+      <c r="AD32" s="1">
         <f t="shared" si="19"/>
-        <v>1.3244891179541</v>
-      </c>
-      <c r="AA32" s="1">
+        <v>0.4959512260881106</v>
+      </c>
+      <c r="AE32" s="1">
         <f t="shared" si="20"/>
-        <v>1.75368918836612</v>
-      </c>
-      <c r="AB32" s="1">
-        <f t="shared" si="21"/>
-        <v>0.141895727086517</v>
-      </c>
-      <c r="AC32" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.268190721329796</v>
-      </c>
-      <c r="AD32" s="1">
-        <f t="shared" si="23"/>
-        <v>0.495951226088111</v>
-      </c>
-      <c r="AE32" s="1">
-        <f t="shared" si="24"/>
-        <v>0.292954289300147</v>
+        <v>0.29295428930014683</v>
       </c>
       <c r="AF32" s="8">
-        <v>44.3666666666667</v>
+        <v>44.366666666666703</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>0.089332</v>
+        <v>8.9331999999999995E-2</v>
       </c>
       <c r="B33" s="4">
-        <v>0.331068</v>
+        <v>0.33106799999999997</v>
       </c>
       <c r="C33" s="4">
-        <v>0.232121</v>
+        <v>0.23212099999999999</v>
       </c>
       <c r="D33" s="4">
-        <v>0.583293</v>
+        <v>0.58329299999999995</v>
       </c>
       <c r="E33" s="4">
-        <v>0.905736</v>
+        <v>0.90573599999999999</v>
       </c>
       <c r="F33" s="4">
-        <v>0.944988</v>
+        <v>0.94498800000000005</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>0.605608316646972</v>
+        <v>0.60560831664697157</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>0.481107412213884</v>
+        <v>0.48110741221388403</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="2"/>
-        <v>0.637585571361194</v>
+        <v>0.63758557136119354</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="3"/>
-        <v>0.712274843186369</v>
+        <v>0.71227484318636858</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="4"/>
-        <v>1.36377572018662</v>
+        <v>1.3637757201866221</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="5"/>
-        <v>0.92675359855851</v>
+        <v>0.92675359855851014</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="6"/>
-        <v>1.17952958734384</v>
+        <v>1.1795295873438394</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="7"/>
-        <v>10.0249087668675</v>
+        <v>10.024908766867521</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" si="8"/>
-        <v>1.41268170755772</v>
+        <v>1.4126817075577187</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="9"/>
-        <v>0.712867</v>
+        <v>0.71286700000000003</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="10"/>
-        <v>1.02996537309353</v>
+        <v>1.0299653730935272</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" si="11"/>
-        <v>0.533140529306137</v>
+        <v>0.53314052930613742</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="12"/>
-        <v>0.657052649232294</v>
+        <v>0.65705264923229445</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="13"/>
-        <v>4.07110084826448</v>
+        <v>4.071100848264483</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="14"/>
-        <v>46.7299</v>
+        <v>46.729900000000001</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="15"/>
-        <v>0.307274007759689</v>
+        <v>0.30727400775968933</v>
       </c>
       <c r="W33" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0333461047362649</v>
+        <v>-3.3346104736264918E-2</v>
       </c>
       <c r="X33" s="1">
+        <f t="shared" si="21"/>
+        <v>0.34636723265510289</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="22"/>
+        <v>0.82726428958156084</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0217664710127141</v>
+      </c>
+      <c r="AA33" s="1">
+        <f t="shared" si="24"/>
+        <v>2.0012729072655473</v>
+      </c>
+      <c r="AB33" s="1">
         <f t="shared" si="17"/>
-        <v>0.346367232655103</v>
-      </c>
-      <c r="Y33" s="1">
+        <v>0.16272389040541846</v>
+      </c>
+      <c r="AC33" s="1">
         <f t="shared" si="18"/>
-        <v>0.827264289581561</v>
-      </c>
-      <c r="Z33" s="1">
+        <v>-0.18259464938404868</v>
+      </c>
+      <c r="AD33" s="1">
         <f t="shared" si="19"/>
-        <v>1.02176647101271</v>
-      </c>
-      <c r="AA33" s="1">
+        <v>0.66804793149516217</v>
+      </c>
+      <c r="AE33" s="1">
         <f t="shared" si="20"/>
-        <v>2.00127290726555</v>
-      </c>
-      <c r="AB33" s="1">
-        <f t="shared" si="21"/>
-        <v>0.162723890405418</v>
-      </c>
-      <c r="AC33" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.182594649384049</v>
-      </c>
-      <c r="AD33" s="1">
-        <f t="shared" si="23"/>
-        <v>0.668047931495162</v>
-      </c>
-      <c r="AE33" s="1">
-        <f t="shared" si="24"/>
-        <v>0.431910647640954</v>
+        <v>0.43191064764095416</v>
       </c>
       <c r="AF33" s="8">
         <v>41.5</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>0.073525</v>
+        <v>7.3524999999999993E-2</v>
       </c>
       <c r="B34" s="4">
-        <v>0.358199</v>
+        <v>0.35819899999999999</v>
       </c>
       <c r="C34" s="4">
-        <v>0.2685</v>
+        <v>0.26850000000000002</v>
       </c>
       <c r="D34" s="4">
-        <v>0.568514</v>
+        <v>0.56851399999999996</v>
       </c>
       <c r="E34" s="4">
-        <v>0.832211</v>
+        <v>0.83221100000000003</v>
       </c>
       <c r="F34" s="4">
-        <v>0.859901</v>
+        <v>0.85990100000000003</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>0.524105349073601</v>
+        <v>0.52410534907360062</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="1"/>
-        <v>0.411872588457434</v>
+        <v>0.4118725884574338</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="2"/>
-        <v>0.54476845690957</v>
+        <v>0.54476845690956965</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="3"/>
-        <v>0.59038530112794</v>
+        <v>0.59038530112793963</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="4"/>
-        <v>1.07443012923022</v>
+        <v>1.074430129230225</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="5"/>
-        <v>0.810979041407821</v>
+        <v>0.81097904140782107</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="6"/>
-        <v>1.13767737525632</v>
+        <v>1.1376773752563225</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="7"/>
-        <v>5.12489495735716</v>
+        <v>5.1248949573571583</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="8"/>
-        <v>1.33982496131979</v>
+        <v>1.3398249613197859</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="9"/>
-        <v>0.591401</v>
+        <v>0.59140100000000007</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="10"/>
-        <v>0.971244675248489</v>
+        <v>0.97124467524848879</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" si="11"/>
-        <v>0.459019358103572</v>
+        <v>0.45901935810357186</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" si="12"/>
-        <v>0.556737305690463</v>
+        <v>0.55673730569046342</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="13"/>
-        <v>3.20261080074488</v>
+        <v>3.2026108007448788</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="14"/>
-        <v>39.07202</v>
+        <v>39.072020000000002</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" si="15"/>
-        <v>0.25823000865827</v>
+        <v>0.25823000865826962</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0245391487600596</v>
+        <v>-2.4539148760059581E-2</v>
       </c>
       <c r="X34" s="1">
+        <f t="shared" si="21"/>
+        <v>0.3537082999897016</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84246206983735195</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="23"/>
+        <v>1.253941326263283</v>
+      </c>
+      <c r="AA34" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7994674940924091</v>
+      </c>
+      <c r="AB34" s="1">
         <f t="shared" si="17"/>
-        <v>0.353708299989702</v>
-      </c>
-      <c r="Y34" s="1">
+        <v>0.14363427220466923</v>
+      </c>
+      <c r="AC34" s="1">
         <f t="shared" si="18"/>
-        <v>0.842462069837352</v>
-      </c>
-      <c r="Z34" s="1">
+        <v>-0.27292321564723232</v>
+      </c>
+      <c r="AD34" s="1">
         <f t="shared" si="19"/>
-        <v>1.25394132626328</v>
-      </c>
-      <c r="AA34" s="1">
+        <v>0.50642952035536659</v>
+      </c>
+      <c r="AE34" s="1">
         <f t="shared" si="20"/>
-        <v>1.79946749409241</v>
-      </c>
-      <c r="AB34" s="1">
-        <f t="shared" si="21"/>
-        <v>0.143634272204669</v>
-      </c>
-      <c r="AC34" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.272923215647232</v>
-      </c>
-      <c r="AD34" s="1">
-        <f t="shared" si="23"/>
-        <v>0.506429520355367</v>
-      </c>
-      <c r="AE34" s="1">
-        <f t="shared" si="24"/>
-        <v>0.299556588603692</v>
+        <v>0.29955658860369233</v>
       </c>
       <c r="AF34" s="8">
-        <v>42.4333333333333</v>
+        <v>42.433333333333302</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
-        <v>0.086142</v>
+        <v>8.6141999999999996E-2</v>
       </c>
       <c r="B35" s="4">
-        <v>0.428565</v>
+        <v>0.42856499999999997</v>
       </c>
       <c r="C35" s="4">
-        <v>0.320204</v>
+        <v>0.32020399999999999</v>
       </c>
       <c r="D35" s="4">
-        <v>0.670474</v>
+        <v>0.67047400000000001</v>
       </c>
       <c r="E35" s="4">
-        <v>0.967264</v>
+        <v>0.96726400000000001</v>
       </c>
       <c r="F35" s="4">
-        <v>1.001006</v>
+        <v>1.0010060000000001</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>0.515286744726425</v>
+        <v>0.51528674472642511</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="1"/>
-        <v>0.400428520164441</v>
+        <v>0.40042852016444097</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="2"/>
-        <v>0.560727757919186</v>
+        <v>0.56072775791918572</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" si="3"/>
-        <v>0.614554144805285</v>
+        <v>0.61455414480528525</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="4"/>
-        <v>1.04669830390316</v>
+        <v>1.0466983039031641</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="5"/>
-        <v>0.949503523587463</v>
+        <v>0.94950352358746304</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="6"/>
-        <v>1.42287392099983</v>
+        <v>1.4228739209998293</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="7"/>
-        <v>30.5781402737048</v>
+        <v>30.578140273704804</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="8"/>
-        <v>1.75174079291608</v>
+        <v>1.7517407929160798</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="9"/>
-        <v>0.680802</v>
+        <v>0.68080200000000013</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="10"/>
-        <v>0.943649184914495</v>
+        <v>0.94364918491449457</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" si="11"/>
-        <v>0.459625576386873</v>
+        <v>0.45962557638687301</v>
       </c>
       <c r="S35" s="1">
         <f t="shared" si="12"/>
-        <v>0.592290677271929</v>
+        <v>0.59229067727192852</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" si="13"/>
-        <v>3.12615082884661</v>
+        <v>3.1261508288466104</v>
       </c>
       <c r="U35" s="1">
         <f t="shared" si="14"/>
-        <v>45.18256</v>
+        <v>45.182560000000009</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" si="15"/>
-        <v>0.250173704407324</v>
+        <v>0.25017370440732362</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0255387107272879</v>
+        <v>-2.5538710727287903E-2</v>
       </c>
       <c r="X35" s="1">
+        <f t="shared" si="21"/>
+        <v>0.35678081736416051</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84152663666768468</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="23"/>
+        <v>0.82151602803520829</v>
+      </c>
+      <c r="AA35" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7451390355535219</v>
+      </c>
+      <c r="AB35" s="1">
         <f t="shared" si="17"/>
-        <v>0.356780817364161</v>
-      </c>
-      <c r="Y35" s="1">
+        <v>0.15339833738364381</v>
+      </c>
+      <c r="AC35" s="1">
         <f t="shared" si="18"/>
-        <v>0.841526636667685</v>
-      </c>
-      <c r="Z35" s="1">
+        <v>-0.38728954046605746</v>
+      </c>
+      <c r="AD35" s="1">
         <f t="shared" si="19"/>
-        <v>0.821516028035208</v>
-      </c>
-      <c r="AA35" s="1">
+        <v>0.51951137992134111</v>
+      </c>
+      <c r="AE35" s="1">
         <f t="shared" si="20"/>
-        <v>1.74513903555352</v>
-      </c>
-      <c r="AB35" s="1">
-        <f t="shared" si="21"/>
-        <v>0.153398337383644</v>
-      </c>
-      <c r="AC35" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.387289540466057</v>
-      </c>
-      <c r="AD35" s="1">
-        <f t="shared" si="23"/>
-        <v>0.519511379921341</v>
-      </c>
-      <c r="AE35" s="1">
-        <f t="shared" si="24"/>
-        <v>0.287242360178798</v>
+        <v>0.28724236017879839</v>
       </c>
       <c r="AF35" s="8">
-        <v>38.9333333333333</v>
+        <v>38.933333333333302</v>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
-        <v>0.070475</v>
+        <v>7.0474999999999996E-2</v>
       </c>
       <c r="B36" s="4">
-        <v>0.408915</v>
+        <v>0.40891499999999997</v>
       </c>
       <c r="C36" s="4">
-        <v>0.31193</v>
+        <v>0.31192999999999999</v>
       </c>
       <c r="D36" s="4">
-        <v>0.610715</v>
+        <v>0.61071500000000001</v>
       </c>
       <c r="E36" s="4">
-        <v>0.866246</v>
+        <v>0.86624599999999996</v>
       </c>
       <c r="F36" s="4">
-        <v>0.882091</v>
+        <v>0.88209099999999996</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
-        <v>0.477513377067907</v>
+        <v>0.47751337706790747</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="1"/>
-        <v>0.366517274125759</v>
+        <v>0.3665172741257593</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="2"/>
-        <v>0.504858853579737</v>
+        <v>0.50485885357973714</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="3"/>
-        <v>0.54182918536083</v>
+        <v>0.54182918536083036</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>0.934249668343208</v>
+        <v>0.93424966834320833</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="5"/>
-        <v>0.817335805308883</v>
+        <v>0.81733580530888339</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="6"/>
-        <v>1.25895039748863</v>
+        <v>1.2589503974886276</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="7"/>
-        <v>6.59487566726976</v>
+        <v>6.5948756672697613</v>
       </c>
       <c r="O36" s="1">
         <f t="shared" si="8"/>
-        <v>1.49232513090334</v>
+        <v>1.4923251309033385</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="9"/>
-        <v>0.570161</v>
+        <v>0.57016099999999992</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" si="10"/>
-        <v>0.908265140485633</v>
+        <v>0.90826514048563323</v>
       </c>
       <c r="R36" s="1">
         <f t="shared" si="11"/>
-        <v>0.42108726526398</v>
+        <v>0.42108726526398038</v>
       </c>
       <c r="S36" s="1">
         <f t="shared" si="12"/>
-        <v>0.521784921766062</v>
+        <v>0.52178492176606173</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" si="13"/>
@@ -5460,61 +4875,61 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" si="14"/>
-        <v>38.08906</v>
+        <v>38.089060000000003</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" si="15"/>
-        <v>0.227279084706215</v>
+        <v>0.22727908470621536</v>
       </c>
       <c r="W36" s="1">
         <f t="shared" si="16"/>
-        <v>-0.013270285865994</v>
+        <v>-1.3270285865993979E-2</v>
       </c>
       <c r="X36" s="1">
+        <f t="shared" si="21"/>
+        <v>0.3627831216386791</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="22"/>
+        <v>0.85203125032806137</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="23"/>
+        <v>1.1527399054328771</v>
+      </c>
+      <c r="AA36" s="1">
+        <f t="shared" si="24"/>
+        <v>1.6455248778153959</v>
+      </c>
+      <c r="AB36" s="1">
         <f t="shared" si="17"/>
-        <v>0.362783121638679</v>
-      </c>
-      <c r="Y36" s="1">
+        <v>0.13900430741548897</v>
+      </c>
+      <c r="AC36" s="1">
         <f t="shared" si="18"/>
-        <v>0.852031250328061</v>
-      </c>
-      <c r="Z36" s="1">
+        <v>-0.37273495408319635</v>
+      </c>
+      <c r="AD36" s="1">
         <f t="shared" si="19"/>
-        <v>1.15273990543288</v>
-      </c>
-      <c r="AA36" s="1">
+        <v>0.44197040192601267</v>
+      </c>
+      <c r="AE36" s="1">
         <f t="shared" si="20"/>
-        <v>1.6455248778154</v>
-      </c>
-      <c r="AB36" s="1">
-        <f t="shared" si="21"/>
-        <v>0.139004307415489</v>
-      </c>
-      <c r="AC36" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.372734954083196</v>
-      </c>
-      <c r="AD36" s="1">
-        <f t="shared" si="23"/>
-        <v>0.441970401926013</v>
-      </c>
-      <c r="AE36" s="1">
-        <f t="shared" si="24"/>
-        <v>0.22898745781887</v>
+        <v>0.22898745781886981</v>
       </c>
       <c r="AF36" s="8">
         <v>39.6666666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
-        <v>0.067418</v>
+        <v>6.7418000000000006E-2</v>
       </c>
       <c r="B37" s="4">
-        <v>0.361204</v>
+        <v>0.36120400000000003</v>
       </c>
       <c r="C37" s="4">
-        <v>0.271936</v>
+        <v>0.27193600000000001</v>
       </c>
       <c r="D37" s="4">
         <v>0.550736</v>
@@ -5523,149 +4938,146 @@
         <v>0.79579</v>
       </c>
       <c r="F37" s="4">
-        <v>0.815945</v>
+        <v>0.81594500000000003</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="0"/>
-        <v>0.500062966445778</v>
+        <v>0.50006296644577841</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="1"/>
-        <v>0.386307086018847</v>
+        <v>0.38630708601884722</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="2"/>
-        <v>0.513900915748724</v>
+        <v>0.51390091574872421</v>
       </c>
       <c r="J37" s="6">
         <f t="shared" si="3"/>
-        <v>0.550930583327804</v>
+        <v>0.55093058332780376</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="4"/>
-        <v>1.00018891321542</v>
+        <v>1.0001889132154154</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="5"/>
-        <v>0.759630395716639</v>
+        <v>0.75963039571663926</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="6"/>
-        <v>1.09302204201828</v>
+        <v>1.0930220420182841</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="7"/>
-        <v>3.99561725674551</v>
+        <v>3.9956172567455073</v>
       </c>
       <c r="O37" s="1">
         <f t="shared" si="8"/>
-        <v>1.27731701513472</v>
+        <v>1.2773170151347224</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="9"/>
-        <v>0.544009</v>
+        <v>0.54400899999999996</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="10"/>
-        <v>0.951251793400287</v>
+        <v>0.95125179340028709</v>
       </c>
       <c r="R37" s="1">
         <f t="shared" si="11"/>
-        <v>0.435946216025406</v>
+        <v>0.43594621602540623</v>
       </c>
       <c r="S37" s="1">
         <f t="shared" si="12"/>
-        <v>0.521573345094629</v>
+        <v>0.52157334509462949</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" si="13"/>
-        <v>3.00050379501059</v>
+        <v>3.0005037950105908</v>
       </c>
       <c r="U37" s="1">
         <f t="shared" si="14"/>
-        <v>36.21126</v>
+        <v>36.211260000000003</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" si="15"/>
-        <v>0.243784936036202</v>
+        <v>0.24378493603620249</v>
       </c>
       <c r="W37" s="1">
         <f t="shared" si="16"/>
-        <v>-0.0185268425498745</v>
+        <v>-1.8526842549874509E-2</v>
       </c>
       <c r="X37" s="1">
+        <f t="shared" si="21"/>
+        <v>0.36077199975135665</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84736059807802688</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="23"/>
+        <v>1.3920480719648558</v>
+      </c>
+      <c r="AA37" s="1">
+        <f t="shared" si="24"/>
+        <v>1.7006795455499502</v>
+      </c>
+      <c r="AB37" s="1">
         <f t="shared" si="17"/>
-        <v>0.360771999751357</v>
-      </c>
-      <c r="Y37" s="1">
+        <v>0.13723531400672223</v>
+      </c>
+      <c r="AC37" s="1">
         <f t="shared" si="18"/>
-        <v>0.847360598078027</v>
-      </c>
-      <c r="Z37" s="1">
+        <v>-0.28866491275138317</v>
+      </c>
+      <c r="AD37" s="1">
         <f t="shared" si="19"/>
-        <v>1.39204807196486</v>
-      </c>
-      <c r="AA37" s="1">
+        <v>0.46228984005715967</v>
+      </c>
+      <c r="AE37" s="1">
         <f t="shared" si="20"/>
-        <v>1.70067954554995</v>
-      </c>
-      <c r="AB37" s="1">
-        <f t="shared" si="21"/>
-        <v>0.137235314006722</v>
-      </c>
-      <c r="AC37" s="1">
-        <f t="shared" si="22"/>
-        <v>-0.288664912751383</v>
-      </c>
-      <c r="AD37" s="1">
-        <f t="shared" si="23"/>
-        <v>0.46228984005716</v>
-      </c>
-      <c r="AE37" s="1">
-        <f t="shared" si="24"/>
-        <v>0.262682809256275</v>
+        <v>0.26268280925627452</v>
       </c>
       <c r="AF37" s="8">
-        <v>48.9333333333333</v>
+        <v>48.933333333333302</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>